--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$V$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$W$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -597,16 +597,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23562,16 +23565,16 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23586,7 +23589,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23596,7 +23599,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23629,6 +23632,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23696,6 +23700,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23768,7 +23775,9 @@
       <c r="V12" s="8">
         <v>631863.67790462973</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>635431.23818966374</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23910,7 +23919,9 @@
       <c r="V13" s="8">
         <v>2625734.7548659611</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>2806910.5212999512</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24052,7 +24063,9 @@
       <c r="V14" s="8">
         <v>63408.958063482482</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>70448.266475596552</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24292,7 +24305,9 @@
       <c r="V16" s="12">
         <v>3321007.3908340731</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="12">
+        <v>3512790.0259652114</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24390,6 +24405,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -24604,7 +24620,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
@@ -24614,7 +24630,7 @@
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
@@ -24647,6 +24663,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -24714,6 +24731,9 @@
       </c>
       <c r="V30" s="15">
         <v>2020</v>
+      </c>
+      <c r="W30" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="31" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24786,7 +24806,9 @@
       <c r="V32" s="8">
         <v>606834.49259321974</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="8">
+        <v>590131.06002826942</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -24928,7 +24950,9 @@
       <c r="V33" s="8">
         <v>2608118.4679398243</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="8">
+        <v>2759185.6768018231</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25070,7 +25094,9 @@
       <c r="V34" s="8">
         <v>64331.999264682934</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="8">
+        <v>71639.524891671608</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25168,7 +25194,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-      <c r="W35" s="9"/>
+      <c r="W35" s="12"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25310,7 +25336,9 @@
       <c r="V36" s="12">
         <v>3279284.9597977274</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="12">
+        <v>3420956.2617217642</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25408,6 +25436,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -25622,7 +25651,7 @@
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
@@ -25632,7 +25661,7 @@
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25664,6 +25693,8 @@
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -25727,8 +25758,12 @@
         <v>15</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W50" s="17"/>
     </row>
     <row r="51" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -25797,7 +25832,10 @@
       <c r="U52" s="18">
         <v>-7.2339729700905195</v>
       </c>
-      <c r="W52" s="9"/>
+      <c r="V52" s="18">
+        <v>0.564609172798896</v>
+      </c>
+      <c r="W52" s="18"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
@@ -25931,7 +25969,10 @@
       <c r="U53" s="18">
         <v>-3.7896032097379191</v>
       </c>
-      <c r="W53" s="9"/>
+      <c r="V53" s="18">
+        <v>6.9000026030138173</v>
+      </c>
+      <c r="W53" s="18"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -26065,7 +26106,10 @@
       <c r="U54" s="18">
         <v>-40.936403226704613</v>
       </c>
-      <c r="W54" s="9"/>
+      <c r="V54" s="18">
+        <v>11.101441542481425</v>
+      </c>
+      <c r="W54" s="18"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -26157,6 +26201,7 @@
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -26291,7 +26336,10 @@
       <c r="U56" s="18">
         <v>-5.5902525743814522</v>
       </c>
-      <c r="W56" s="9"/>
+      <c r="V56" s="18">
+        <v>5.774833132273514</v>
+      </c>
+      <c r="W56" s="18"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -26383,6 +26431,8 @@
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
     </row>
     <row r="58" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
@@ -26411,6 +26461,7 @@
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -26503,6 +26554,7 @@
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -26585,7 +26637,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:92" x14ac:dyDescent="0.25">
@@ -26595,7 +26647,7 @@
     </row>
     <row r="66" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:92" x14ac:dyDescent="0.25">
@@ -26627,6 +26679,8 @@
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
       <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
     </row>
     <row r="70" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -26690,8 +26744,12 @@
         <v>15</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="V70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W70" s="6"/>
     </row>
     <row r="71" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -26760,7 +26818,10 @@
       <c r="U72" s="18">
         <v>-10.056207286892473</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="V72" s="18">
+        <v>-2.7525516048981729</v>
+      </c>
+      <c r="W72" s="18"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -26894,7 +26955,10 @@
       <c r="U73" s="18">
         <v>-3.5663861680149012</v>
       </c>
-      <c r="W73" s="9"/>
+      <c r="V73" s="18">
+        <v>5.7921912182665523</v>
+      </c>
+      <c r="W73" s="18"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -27028,7 +27092,10 @@
       <c r="U74" s="18">
         <v>-41.539468730892636</v>
       </c>
-      <c r="W74" s="9"/>
+      <c r="V74" s="18">
+        <v>11.359083676108256</v>
+      </c>
+      <c r="W74" s="18"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -27120,6 +27187,7 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -27254,7 +27322,10 @@
       <c r="U76" s="18">
         <v>-6.0188139461231316</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="V76" s="18">
+        <v>4.3201888113064513</v>
+      </c>
+      <c r="W76" s="18"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -27346,6 +27417,8 @@
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
       <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
     </row>
     <row r="78" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
@@ -27374,6 +27447,7 @@
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -27545,7 +27619,7 @@
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:96" x14ac:dyDescent="0.25">
@@ -27555,7 +27629,7 @@
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
@@ -27588,6 +27662,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -27655,6 +27730,9 @@
       </c>
       <c r="V89" s="15">
         <v>2020</v>
+      </c>
+      <c r="W89" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="90" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27727,7 +27805,9 @@
       <c r="V91" s="18">
         <v>104.12454888720175</v>
       </c>
-      <c r="W91" s="9"/>
+      <c r="W91" s="18">
+        <v>107.67629112069177</v>
+      </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -27869,7 +27949,9 @@
       <c r="V92" s="18">
         <v>100.67544044270551</v>
       </c>
-      <c r="W92" s="9"/>
+      <c r="W92" s="18">
+        <v>101.72967136280026</v>
+      </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -28011,7 +28093,9 @@
       <c r="V93" s="18">
         <v>98.565191177406504</v>
       </c>
-      <c r="W93" s="9"/>
+      <c r="W93" s="18">
+        <v>98.337149195396819</v>
+      </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -28251,7 +28335,9 @@
       <c r="V95" s="18">
         <v>101.2723026985407</v>
       </c>
-      <c r="W95" s="9"/>
+      <c r="W95" s="18">
+        <v>102.68444719013236</v>
+      </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28349,6 +28435,7 @@
       <c r="T96" s="13"/>
       <c r="U96" s="13"/>
       <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
@@ -28367,7 +28454,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -28377,7 +28464,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -28410,6 +28497,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
@@ -28477,6 +28565,9 @@
       </c>
       <c r="V109" s="15">
         <v>2020</v>
+      </c>
+      <c r="W109" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28549,7 +28640,9 @@
       <c r="V111" s="18">
         <v>19.026265332879515</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="W111" s="18">
+        <v>18.089075449793384</v>
+      </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -28691,7 +28784,9 @@
       <c r="V112" s="18">
         <v>79.064405641280615</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="W112" s="18">
+        <v>79.905445544775901</v>
+      </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -28833,7 +28928,9 @@
       <c r="V113" s="18">
         <v>1.9093290258398756</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="W113" s="18">
+        <v>2.0054790054307174</v>
+      </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -29073,7 +29170,9 @@
       <c r="V115" s="18">
         <v>100</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="W115" s="18">
+        <v>100</v>
+      </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -29171,6 +29270,7 @@
       <c r="T116" s="13"/>
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
     </row>
     <row r="117" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
@@ -29385,7 +29485,7 @@
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.25">
@@ -29395,7 +29495,7 @@
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.25">
@@ -29428,6 +29528,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -29495,6 +29596,9 @@
       </c>
       <c r="V129" s="15">
         <v>2020</v>
+      </c>
+      <c r="W129" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="130" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29567,7 +29671,9 @@
       <c r="V131" s="18">
         <v>18.505085713278497</v>
       </c>
-      <c r="W131" s="9"/>
+      <c r="W131" s="18">
+        <v>17.250470771329212</v>
+      </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -29709,7 +29815,9 @@
       <c r="V132" s="18">
         <v>79.533145179938799</v>
       </c>
-      <c r="W132" s="9"/>
+      <c r="W132" s="18">
+        <v>80.655391817641288</v>
+      </c>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -29851,7 +29959,9 @@
       <c r="V133" s="18">
         <v>1.961769106782689</v>
       </c>
-      <c r="W133" s="9"/>
+      <c r="W133" s="18">
+        <v>2.0941374110294966</v>
+      </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -30091,7 +30201,9 @@
       <c r="V135" s="18">
         <v>100</v>
       </c>
-      <c r="W135" s="9"/>
+      <c r="W135" s="18">
+        <v>100</v>
+      </c>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -30189,6 +30301,7 @@
       <c r="T136" s="13"/>
       <c r="U136" s="13"/>
       <c r="V136" s="13"/>
+      <c r="W136" s="13"/>
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
@@ -30397,9 +30510,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="21" man="1"/>
-    <brk id="80" max="21" man="1"/>
-    <brk id="99" max="21" man="1"/>
+    <brk id="40" max="22" man="1"/>
+    <brk id="80" max="22" man="1"/>
+    <brk id="99" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B117FE-58A9-4DD9-A59E-3C97055BC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -603,19 +604,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -734,9 +735,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23558,7 +23559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23567,7 +23568,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23589,7 +23590,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23599,7 +23600,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23773,10 +23774,10 @@
         <v>681136.9400361462</v>
       </c>
       <c r="V12" s="8">
-        <v>631863.67790462973</v>
+        <v>635473.83339649253</v>
       </c>
       <c r="W12" s="8">
-        <v>635431.23818966374</v>
+        <v>635326.10345922422</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23917,10 +23918,10 @@
         <v>2729159.053974221</v>
       </c>
       <c r="V13" s="8">
-        <v>2625734.7548659611</v>
+        <v>2618526.1836599652</v>
       </c>
       <c r="W13" s="8">
-        <v>2806910.5212999512</v>
+        <v>2797404.0252264026</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24061,10 +24062,10 @@
         <v>107357.08884588581</v>
       </c>
       <c r="V14" s="8">
-        <v>63408.958063482482</v>
+        <v>63370.663802252027</v>
       </c>
       <c r="W14" s="8">
-        <v>70448.266475596552</v>
+        <v>70506.35086332733</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -24303,10 +24304,10 @@
         <v>3517653.0828562533</v>
       </c>
       <c r="V16" s="12">
-        <v>3321007.3908340731</v>
+        <v>3317370.6808587098</v>
       </c>
       <c r="W16" s="12">
-        <v>3512790.0259652114</v>
+        <v>3503236.4795489539</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -24620,7 +24621,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
@@ -24630,7 +24631,7 @@
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
@@ -24804,10 +24805,10 @@
         <v>674681.90331803251</v>
       </c>
       <c r="V32" s="8">
-        <v>606834.49259321974</v>
+        <v>610301.16841231892</v>
       </c>
       <c r="W32" s="8">
-        <v>590131.06002826942</v>
+        <v>590095.56796223274</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -24948,10 +24949,10 @@
         <v>2704574.0217554346</v>
       </c>
       <c r="V33" s="8">
-        <v>2608118.4679398243</v>
+        <v>2600942.9644004363</v>
       </c>
       <c r="W33" s="8">
-        <v>2759185.6768018231</v>
+        <v>2752507.948130962</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -25092,10 +25093,10 @@
         <v>110043.47355063853</v>
       </c>
       <c r="V34" s="8">
-        <v>64331.999264682934</v>
+        <v>64292.680202356598</v>
       </c>
       <c r="W34" s="8">
-        <v>71639.524891671608</v>
+        <v>71722.812121643423</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -25334,10 +25335,10 @@
         <v>3489299.3986241058</v>
       </c>
       <c r="V36" s="12">
-        <v>3279284.9597977274</v>
+        <v>3275536.8130151117</v>
       </c>
       <c r="W36" s="12">
-        <v>3420956.2617217642</v>
+        <v>3414326.3282148377</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -25651,7 +25652,7 @@
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
@@ -25661,7 +25662,7 @@
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25830,10 +25831,10 @@
         <v>7.8317717920496648</v>
       </c>
       <c r="U52" s="18">
-        <v>-7.2339729700905195</v>
+        <v>-6.7039539269783859</v>
       </c>
       <c r="V52" s="18">
-        <v>0.564609172798896</v>
+        <v>-2.3247210113865435E-2</v>
       </c>
       <c r="W52" s="18"/>
       <c r="X52" s="9"/>
@@ -25967,10 +25968,10 @@
         <v>8.9750372343015954</v>
       </c>
       <c r="U53" s="18">
-        <v>-3.7896032097379191</v>
+        <v>-4.0537347998516822</v>
       </c>
       <c r="V53" s="18">
-        <v>6.9000026030138173</v>
+        <v>6.8312412792610075</v>
       </c>
       <c r="W53" s="18"/>
       <c r="X53" s="9"/>
@@ -26104,10 +26105,10 @@
         <v>6.0327095904769266</v>
       </c>
       <c r="U54" s="18">
-        <v>-40.936403226704613</v>
+        <v>-40.972073215190804</v>
       </c>
       <c r="V54" s="18">
-        <v>11.101441542481425</v>
+        <v>11.260237202725534</v>
       </c>
       <c r="W54" s="18"/>
       <c r="X54" s="9"/>
@@ -26334,10 +26335,10 @@
         <v>8.6599386563079861</v>
       </c>
       <c r="U56" s="18">
-        <v>-5.5902525743814522</v>
+        <v>-5.6936371290746735</v>
       </c>
       <c r="V56" s="18">
-        <v>5.774833132273514</v>
+        <v>5.6028046477498918</v>
       </c>
       <c r="W56" s="18"/>
       <c r="X56" s="9"/>
@@ -26637,7 +26638,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:92" x14ac:dyDescent="0.25">
@@ -26647,7 +26648,7 @@
     </row>
     <row r="66" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:92" x14ac:dyDescent="0.25">
@@ -26816,10 +26817,10 @@
         <v>6.8098656152095316</v>
       </c>
       <c r="U72" s="18">
-        <v>-10.056207286892473</v>
+        <v>-9.5423835423914909</v>
       </c>
       <c r="V72" s="18">
-        <v>-2.7525516048981729</v>
+        <v>-3.3107589327823916</v>
       </c>
       <c r="W72" s="18"/>
       <c r="X72" s="9"/>
@@ -26953,10 +26954,10 @@
         <v>7.9933594542735733</v>
       </c>
       <c r="U73" s="18">
-        <v>-3.5663861680149012</v>
+        <v>-3.8316961015448641</v>
       </c>
       <c r="V73" s="18">
-        <v>5.7921912182665523</v>
+        <v>5.8273090108096284</v>
       </c>
       <c r="W73" s="18"/>
       <c r="X73" s="9"/>
@@ -27090,10 +27091,10 @@
         <v>8.685954497818301</v>
       </c>
       <c r="U74" s="18">
-        <v>-41.539468730892636</v>
+        <v>-41.57519921181774</v>
       </c>
       <c r="V74" s="18">
-        <v>11.359083676108256</v>
+        <v>11.556730713202541</v>
       </c>
       <c r="W74" s="18"/>
       <c r="X74" s="9"/>
@@ -27320,10 +27321,10 @@
         <v>7.7840962930116433</v>
       </c>
       <c r="U76" s="18">
-        <v>-6.0188139461231316</v>
+        <v>-6.1262322658033952</v>
       </c>
       <c r="V76" s="18">
-        <v>4.3201888113064513</v>
+        <v>4.2371532705190731</v>
       </c>
       <c r="W76" s="18"/>
       <c r="X76" s="9"/>
@@ -27619,7 +27620,7 @@
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:96" x14ac:dyDescent="0.25">
@@ -27629,7 +27630,7 @@
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
@@ -27803,10 +27804,10 @@
         <v>100.95675260984002</v>
       </c>
       <c r="V91" s="18">
-        <v>104.12454888720175</v>
+        <v>104.12462998385857</v>
       </c>
       <c r="W91" s="18">
-        <v>107.67629112069177</v>
+        <v>107.66495089146073</v>
       </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
@@ -27947,10 +27948,10 @@
         <v>100.90901679972617</v>
       </c>
       <c r="V92" s="18">
-        <v>100.67544044270551</v>
+        <v>100.67603248130365</v>
       </c>
       <c r="W92" s="18">
-        <v>101.72967136280026</v>
+        <v>101.63109709186948</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
@@ -28091,10 +28092,10 @@
         <v>97.558796884472628</v>
       </c>
       <c r="V93" s="18">
-        <v>98.565191177406504</v>
+        <v>98.565907662890098</v>
       </c>
       <c r="W93" s="18">
-        <v>98.337149195396819</v>
+        <v>98.303940932693848</v>
       </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
@@ -28333,10 +28334,10 @@
         <v>100.81258960590564</v>
       </c>
       <c r="V95" s="18">
-        <v>101.2723026985407</v>
+        <v>101.27716066805826</v>
       </c>
       <c r="W95" s="18">
-        <v>102.68444719013236</v>
+        <v>102.60403203406167</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -28454,7 +28455,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -28464,7 +28465,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -28638,10 +28639,10 @@
         <v>19.363391556596557</v>
       </c>
       <c r="V111" s="18">
-        <v>19.026265332879515</v>
+        <v>19.155948928565273</v>
       </c>
       <c r="W111" s="18">
-        <v>18.089075449793384</v>
+        <v>18.135404422970133</v>
       </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
@@ -28782,10 +28783,10 @@
         <v>77.584656294707912</v>
       </c>
       <c r="V112" s="18">
-        <v>79.064405641280615</v>
+        <v>78.933783275077147</v>
       </c>
       <c r="W112" s="18">
-        <v>79.905445544775901</v>
+        <v>79.851989483352597</v>
       </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
@@ -28926,10 +28927,10 @@
         <v>3.0519521486955257</v>
       </c>
       <c r="V113" s="18">
-        <v>1.9093290258398756</v>
+        <v>1.9102677963575769</v>
       </c>
       <c r="W113" s="18">
-        <v>2.0054790054307174</v>
+        <v>2.0126060936772707</v>
       </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
@@ -29485,7 +29486,7 @@
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.25">
@@ -29495,7 +29496,7 @@
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.25">
@@ -29669,10 +29670,10 @@
         <v>19.335741254650486</v>
       </c>
       <c r="V131" s="18">
-        <v>18.505085713278497</v>
+        <v>18.632096149471771</v>
       </c>
       <c r="W131" s="18">
-        <v>17.250470771329212</v>
+        <v>17.282928204193095</v>
       </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
@@ -29813,10 +29814,10 @@
         <v>77.510517521709303</v>
       </c>
       <c r="V132" s="18">
-        <v>79.533145179938799</v>
+        <v>79.40509030659571</v>
       </c>
       <c r="W132" s="18">
-        <v>80.655391817641288</v>
+        <v>80.616428646118777</v>
       </c>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
@@ -29957,10 +29958,10 @@
         <v>3.1537412236402149</v>
       </c>
       <c r="V133" s="18">
-        <v>1.961769106782689</v>
+        <v>1.9628135439325309</v>
       </c>
       <c r="W133" s="18">
-        <v>2.0941374110294966</v>
+        <v>2.100643149688135</v>
       </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B117FE-58A9-4DD9-A59E-3C97055BC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E98DCA-5040-4FD6-B4D2-39C273AEBD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$W$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$X$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -604,13 +604,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -695,44 +698,43 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -753,7 +755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15120,7 +15122,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -15234,7 +15236,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15943,7 +15945,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15966,7 +15968,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15995,7 +15997,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16058,7 +16060,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16087,7 +16089,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16118,7 +16120,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18512,7 +18514,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18600,7 +18602,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18621,7 +18623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18638,7 +18640,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18695,7 +18697,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18736,7 +18738,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18749,7 +18751,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18762,7 +18764,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18809,7 +18811,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18838,7 +18840,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23255,7 +23257,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23566,49 +23568,49 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23634,8 +23636,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23705,11 +23708,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23779,7 +23785,9 @@
       <c r="W12" s="8">
         <v>635326.10345922422</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>692995.13077080552</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23853,7 +23861,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23923,7 +23931,9 @@
       <c r="W13" s="8">
         <v>2797404.0252264026</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>3206444.1412619995</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23997,7 +24007,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24067,7 +24077,9 @@
       <c r="W14" s="8">
         <v>70506.35086332733</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>87994.728180987295</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24141,8 +24153,8 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -24239,77 +24251,79 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>576736.1671469307</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>632063.93244080339</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>676253.59514061478</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>734068.93339758238</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>828676.02346191613</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>939417.75537209073</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>1062061.3119175669</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>1186383.9284673317</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>1319541.6814817186</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>1366111.9720218179</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>1571247.7682969463</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>1704663.4500750122</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>1878583.2296323087</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>2078127.3987198186</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>2252323.6965363552</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>2427159.6119446205</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>2668595.5711398213</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <v>2926501.504771403</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="11">
         <v>3237304.4991149958</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <v>3517653.0828562533</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="11">
         <v>3317370.6808587098</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="11">
         <v>3503236.4795489539</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="11">
+        <v>3987434.0002137921</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24383,38 +24397,39 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+    <row r="17" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -24511,8 +24526,8 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -24609,37 +24624,37 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -24665,82 +24680,86 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>2000</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>2001</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>2002</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>2003</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>2004</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>2005</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>2006</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <v>2007</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <v>2008</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <v>2009</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>2010</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <v>2011</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="14">
         <v>2012</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="14">
         <v>2013</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="14">
         <v>2014</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="14">
         <v>2015</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="14">
         <v>2016</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="14">
         <v>2017</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T30" s="14">
         <v>2018</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="14">
         <v>2019</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="14">
         <v>2020</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="14">
         <v>2021</v>
       </c>
+      <c r="X30" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -24810,7 +24829,9 @@
       <c r="W32" s="8">
         <v>590095.56796223274</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="8">
+        <v>611705.57805417804</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -24884,7 +24905,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -24954,7 +24975,9 @@
       <c r="W33" s="8">
         <v>2752507.948130962</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="8">
+        <v>3011276.868008757</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25028,7 +25051,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -25098,7 +25121,9 @@
       <c r="W34" s="8">
         <v>71722.812121643423</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="8">
+        <v>87650.643833060996</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25172,31 +25197,31 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="9"/>
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25270,77 +25295,79 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>1260149.6255339156</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>1318538.6216639071</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>1361602.1488531257</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>1425297.7458744999</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>1525888.2447104789</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>1603593.7560695738</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>1697235.1577869395</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>1837413.9080579157</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>1861552.7556576778</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="11">
         <v>1877191.3941678239</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>2030313.7585740841</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <v>2093913.3276820951</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <v>2245452.8640486868</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="11">
         <v>2381082.167620216</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="11">
         <v>2506535.1933240402</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="11">
         <v>2670293.9780788044</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="11">
         <v>2861060.496260738</v>
       </c>
-      <c r="S36" s="12">
+      <c r="S36" s="11">
         <v>3057552.3473383007</v>
       </c>
-      <c r="T36" s="12">
+      <c r="T36" s="11">
         <v>3237304.4991149963</v>
       </c>
-      <c r="U36" s="12">
+      <c r="U36" s="11">
         <v>3489299.3986241058</v>
       </c>
-      <c r="V36" s="12">
+      <c r="V36" s="11">
         <v>3275536.8130151117</v>
       </c>
-      <c r="W36" s="12">
+      <c r="W36" s="11">
         <v>3414326.3282148377</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="11">
+        <v>3710633.0898959963</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25414,38 +25441,39 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
+    <row r="37" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -25542,8 +25570,8 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -25640,204 +25668,210 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="17" t="s">
+      <c r="N50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="17" t="s">
+      <c r="O50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="17" t="s">
+      <c r="P50" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="17" t="s">
+      <c r="Q50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R50" s="17" t="s">
+      <c r="R50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S50" s="17" t="s">
+      <c r="S50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="T50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U50" s="17" t="s">
+      <c r="U50" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V50" s="17" t="s">
+      <c r="V50" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="W50" s="17"/>
+      <c r="W50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X50" s="16"/>
     </row>
-    <row r="51" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>8.1893598450566714</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>4.548920103801521</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="17">
         <v>6.9481388535689916</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="17">
         <v>22.943752458166571</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="17">
         <v>15.521092416378863</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="17">
         <v>18.539705170782312</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="17">
         <v>11.588509135507351</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="17">
         <v>14.5736153769314</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="17">
         <v>-12.701430699096591</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="17">
         <v>11.807132301649986</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="17">
         <v>7.3605936821247866</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="17">
         <v>7.9592319323353848</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="17">
         <v>6.3684340539958981</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="17">
         <v>10.884199117151098</v>
       </c>
-      <c r="P52" s="18">
+      <c r="P52" s="17">
         <v>8.7690888737854067</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="Q52" s="17">
         <v>11.186657055274068</v>
       </c>
-      <c r="R52" s="18">
+      <c r="R52" s="17">
         <v>9.9452641840737073</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S52" s="17">
         <v>14.558825501188878</v>
       </c>
-      <c r="T52" s="18">
+      <c r="T52" s="17">
         <v>7.8317717920496648</v>
       </c>
-      <c r="U52" s="18">
+      <c r="U52" s="17">
         <v>-6.7039539269783859</v>
       </c>
-      <c r="V52" s="18">
+      <c r="V52" s="17">
         <v>-2.3247210113865435E-2</v>
       </c>
-      <c r="W52" s="18"/>
-      <c r="X52" s="9"/>
+      <c r="W52" s="17">
+        <v>9.0770750639057667</v>
+      </c>
+      <c r="X52" s="17"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
@@ -25906,75 +25940,77 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <v>9.9247359957843884</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>7.7283645447403302</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>8.101135708697683</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>8.6342911516152299</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="17">
         <v>14.249911518462881</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="17">
         <v>11.893282416428036</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <v>12.650544548793064</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="17">
         <v>10.723560773758607</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>8.8630700065454278</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="17">
         <v>16.089542192779675</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="17">
         <v>8.910191447215638</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="17">
         <v>11.030236506440104</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="17">
         <v>12.000171535998575</v>
       </c>
-      <c r="O53" s="18">
+      <c r="O53" s="17">
         <v>7.924310619723272</v>
       </c>
-      <c r="P53" s="18">
+      <c r="P53" s="17">
         <v>7.80564121911938</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="Q53" s="17">
         <v>9.8883880786952147</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="17">
         <v>9.8274745706475386</v>
       </c>
-      <c r="S53" s="18">
+      <c r="S53" s="17">
         <v>9.8611380081650566</v>
       </c>
-      <c r="T53" s="18">
+      <c r="T53" s="17">
         <v>8.9750372343015954</v>
       </c>
-      <c r="U53" s="18">
+      <c r="U53" s="17">
         <v>-4.0537347998516822</v>
       </c>
-      <c r="V53" s="18">
+      <c r="V53" s="17">
         <v>6.8312412792610075</v>
       </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="9"/>
+      <c r="W53" s="17">
+        <v>14.622132246431292</v>
+      </c>
+      <c r="X53" s="17"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -26043,75 +26079,77 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>10.462857881621204</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>6.0399022709397343</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>21.313807179923529</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>33.714740465327509</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="17">
         <v>-2.7949020523093253</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="17">
         <v>6.9369964061847469</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="17">
         <v>-7.7915942866795262E-2</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="17">
         <v>3.0174485264607256</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="17">
         <v>3.2841768340053932</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="17">
         <v>11.195012804759457</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="17">
         <v>6.1870104001925341</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="17">
         <v>5.4420844525664478</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="17">
         <v>4.1442684344658289</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="17">
         <v>6.0031944052606434</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54" s="17">
         <v>1.9991655393226466</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="Q54" s="17">
         <v>4.8154441307281388</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="17">
         <v>4.4262639335711782</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S54" s="17">
         <v>6.002149418611296</v>
       </c>
-      <c r="T54" s="18">
+      <c r="T54" s="17">
         <v>6.0327095904769266</v>
       </c>
-      <c r="U54" s="18">
+      <c r="U54" s="17">
         <v>-40.972073215190804</v>
       </c>
-      <c r="V54" s="18">
+      <c r="V54" s="17">
         <v>11.260237202725534</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="9"/>
+      <c r="W54" s="17">
+        <v>24.803974540620061</v>
+      </c>
+      <c r="X54" s="17"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
@@ -26180,8 +26218,8 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -26273,75 +26311,77 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>9.5932539773905461</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>6.9913280020846571</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>8.5493576185640734</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>12.888038951117579</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="17">
         <v>13.36369446862173</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="17">
         <v>13.055273422727538</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="17">
         <v>11.70578526444001</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="17">
         <v>11.223833180748755</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="17">
         <v>3.5292777176849484</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="17">
         <v>15.016030931310226</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="17">
         <v>8.4910657930590503</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="17">
         <v>10.202587469664067</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="17">
         <v>10.622056342245017</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="17">
         <v>8.3823685652691893</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56" s="17">
         <v>7.7624684088317224</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="17">
         <v>9.9472633776138224</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="17">
         <v>9.6644818128594778</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S56" s="17">
         <v>10.620291629334758</v>
       </c>
-      <c r="T56" s="18">
+      <c r="T56" s="17">
         <v>8.6599386563079861</v>
       </c>
-      <c r="U56" s="18">
+      <c r="U56" s="17">
         <v>-5.6936371290746735</v>
       </c>
-      <c r="V56" s="18">
+      <c r="V56" s="17">
         <v>5.6028046477498918</v>
       </c>
-      <c r="W56" s="18"/>
-      <c r="X56" s="9"/>
+      <c r="W56" s="17">
+        <v>13.821434079356791</v>
+      </c>
+      <c r="X56" s="17"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -26410,38 +26450,39 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
+    <row r="57" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -26533,8 +26574,8 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -26626,64 +26667,65 @@
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>5</v>
       </c>
@@ -26750,80 +26792,85 @@
       <c r="V70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W70" s="6"/>
+      <c r="W70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X70" s="6"/>
     </row>
-    <row r="71" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="17">
         <v>-0.65563110175172312</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>-0.98994894842357439</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="17">
         <v>1.3882684675408541</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="17">
         <v>11.899143048002458</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="17">
         <v>2.3911673529160282</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="17">
         <v>7.8346568497612736</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="17">
         <v>6.8284059320541104</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="17">
         <v>5.0904320856707557</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="17">
         <v>-12.714380924393737</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K72" s="17">
         <v>5.2447472221674758</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L72" s="17">
         <v>-2.6371898717575988</v>
       </c>
-      <c r="M72" s="18">
+      <c r="M72" s="17">
         <v>4.5006856834660169</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="17">
         <v>2.9085509858767011</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O72" s="17">
         <v>7.4206648951964667</v>
       </c>
-      <c r="P72" s="18">
+      <c r="P72" s="17">
         <v>9.7141538658436701</v>
       </c>
-      <c r="Q72" s="18">
+      <c r="Q72" s="17">
         <v>9.1658262193182907</v>
       </c>
-      <c r="R72" s="18">
+      <c r="R72" s="17">
         <v>6.257860218206531</v>
       </c>
-      <c r="S72" s="18">
+      <c r="S72" s="17">
         <v>5.7726530355982817</v>
       </c>
-      <c r="T72" s="18">
+      <c r="T72" s="17">
         <v>6.8098656152095316</v>
       </c>
-      <c r="U72" s="18">
+      <c r="U72" s="17">
         <v>-9.5423835423914909</v>
       </c>
-      <c r="V72" s="18">
+      <c r="V72" s="17">
         <v>-3.3107589327823916</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="9"/>
+      <c r="W72" s="17">
+        <v>3.6621203861216571</v>
+      </c>
+      <c r="X72" s="17"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -26892,75 +26939,77 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="17">
         <v>6.5372870852602745</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <v>4.7343957358820177</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="17">
         <v>5.0007121228114499</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="17">
         <v>4.0251921285873351</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="17">
         <v>7.655480061030957</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="17">
         <v>5.8360570132286256</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="17">
         <v>9.3438784943631816</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="17">
         <v>0.36860990344744948</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="17">
         <v>5.1234584093018896</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="17">
         <v>9.2499680478775161</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L73" s="17">
         <v>4.9385560575424705</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="17">
         <v>8.1715803545875332</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="17">
         <v>7.0586096029320942</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O73" s="17">
         <v>4.7972362803630801</v>
       </c>
-      <c r="P73" s="18">
+      <c r="P73" s="17">
         <v>5.7239744717844587</v>
       </c>
-      <c r="Q73" s="18">
+      <c r="Q73" s="17">
         <v>6.711486307094134</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="17">
         <v>7.3435516933759004</v>
       </c>
-      <c r="S73" s="18">
+      <c r="S73" s="17">
         <v>6.2564704664284534</v>
       </c>
-      <c r="T73" s="18">
+      <c r="T73" s="17">
         <v>7.9933594542735733</v>
       </c>
-      <c r="U73" s="18">
+      <c r="U73" s="17">
         <v>-3.8316961015448641</v>
       </c>
-      <c r="V73" s="18">
+      <c r="V73" s="17">
         <v>5.8273090108096284</v>
       </c>
-      <c r="W73" s="18"/>
-      <c r="X73" s="9"/>
+      <c r="W73" s="17">
+        <v>9.4012051828408687</v>
+      </c>
+      <c r="X73" s="17"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -27029,75 +27078,77 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="17">
         <v>5.8994883154999371</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <v>3.6247169355625459</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="17">
         <v>16.283444208535983</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="17">
         <v>27.292863635561559</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="17">
         <v>-13.12084355261814</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="17">
         <v>-3.1438895227878163</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="17">
         <v>-0.9114790819536438</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="17">
         <v>-3.4529839689288053</v>
       </c>
-      <c r="J74" s="18">
+      <c r="J74" s="17">
         <v>6.7838158706551042</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K74" s="17">
         <v>3.5922392762103357</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L74" s="17">
         <v>-1.0198773977151347</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M74" s="17">
         <v>2.6358902760973422</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N74" s="17">
         <v>0.97327623500305549</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O74" s="17">
         <v>4.5297190578759086</v>
       </c>
-      <c r="P74" s="18">
+      <c r="P74" s="17">
         <v>7.4381030233545289</v>
       </c>
-      <c r="Q74" s="18">
+      <c r="Q74" s="17">
         <v>5.602190227128844</v>
       </c>
-      <c r="R74" s="18">
+      <c r="R74" s="17">
         <v>7.7290576064555694E-2</v>
       </c>
-      <c r="S74" s="18">
+      <c r="S74" s="17">
         <v>-2.1098454849083055</v>
       </c>
-      <c r="T74" s="18">
+      <c r="T74" s="17">
         <v>8.685954497818301</v>
       </c>
-      <c r="U74" s="18">
+      <c r="U74" s="17">
         <v>-41.57519921181774</v>
       </c>
-      <c r="V74" s="18">
+      <c r="V74" s="17">
         <v>11.556730713202541</v>
       </c>
-      <c r="W74" s="18"/>
-      <c r="X74" s="9"/>
+      <c r="W74" s="17">
+        <v>22.207483561023267</v>
+      </c>
+      <c r="X74" s="17"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -27166,8 +27217,8 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -27259,75 +27310,77 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="17">
         <v>4.6334970821621653</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>3.2660042323883829</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="17">
         <v>4.6779888732567656</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="17">
         <v>7.0575077472153822</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="17">
         <v>5.0924772261967632</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="17">
         <v>5.8394715845540475</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="17">
         <v>8.2592414862392047</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I76" s="17">
         <v>1.3137403332968063</v>
       </c>
-      <c r="J76" s="18">
+      <c r="J76" s="17">
         <v>0.84008570063980414</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K76" s="17">
         <v>8.1569926690474972</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L76" s="17">
         <v>3.1324995380358303</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M76" s="17">
         <v>7.2371446498381147</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N76" s="17">
         <v>6.040175937025964</v>
       </c>
-      <c r="O76" s="18">
+      <c r="O76" s="17">
         <v>5.2687398784397601</v>
       </c>
-      <c r="P76" s="18">
+      <c r="P76" s="17">
         <v>6.533272909589428</v>
       </c>
-      <c r="Q76" s="18">
+      <c r="Q76" s="17">
         <v>7.1440268280567523</v>
       </c>
-      <c r="R76" s="18">
+      <c r="R76" s="17">
         <v>6.8677978439941398</v>
       </c>
-      <c r="S76" s="18">
+      <c r="S76" s="17">
         <v>5.8789558233786465</v>
       </c>
-      <c r="T76" s="18">
+      <c r="T76" s="17">
         <v>7.7840962930116433</v>
       </c>
-      <c r="U76" s="18">
+      <c r="U76" s="17">
         <v>-6.1262322658033952</v>
       </c>
-      <c r="V76" s="18">
+      <c r="V76" s="17">
         <v>4.2371532705190731</v>
       </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="9"/>
+      <c r="W76" s="17">
+        <v>8.6783374873274255</v>
+      </c>
+      <c r="X76" s="17"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -27396,38 +27449,39 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
+    <row r="77" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
     </row>
-    <row r="78" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -27519,8 +27573,8 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -27613,32 +27667,32 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>6</v>
@@ -27664,152 +27718,158 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <v>2000</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="14">
         <v>2001</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="14">
         <v>2002</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="14">
         <v>2003</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F89" s="14">
         <v>2004</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="14">
         <v>2005</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H89" s="14">
         <v>2006</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I89" s="14">
         <v>2007</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J89" s="14">
         <v>2008</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K89" s="14">
         <v>2009</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L89" s="14">
         <v>2010</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M89" s="14">
         <v>2011</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N89" s="14">
         <v>2012</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O89" s="14">
         <v>2013</v>
       </c>
-      <c r="P89" s="15">
+      <c r="P89" s="14">
         <v>2014</v>
       </c>
-      <c r="Q89" s="15">
+      <c r="Q89" s="14">
         <v>2015</v>
       </c>
-      <c r="R89" s="15">
+      <c r="R89" s="14">
         <v>2016</v>
       </c>
-      <c r="S89" s="15">
+      <c r="S89" s="14">
         <v>2017</v>
       </c>
-      <c r="T89" s="15">
+      <c r="T89" s="14">
         <v>2018</v>
       </c>
-      <c r="U89" s="15">
+      <c r="U89" s="14">
         <v>2019</v>
       </c>
-      <c r="V89" s="15">
+      <c r="V89" s="14">
         <v>2020</v>
       </c>
-      <c r="W89" s="15">
+      <c r="W89" s="14">
         <v>2021</v>
       </c>
+      <c r="X89" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="17">
         <v>36.353502660172332</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="17">
         <v>39.590187391073762</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="17">
         <v>41.804961157809636</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="17">
         <v>44.097437092584812</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="17">
         <v>48.449918759651311</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="17">
         <v>54.662796482321077</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="17">
         <v>60.089325344193945</v>
       </c>
-      <c r="I91" s="18">
+      <c r="I91" s="17">
         <v>62.766809741425952</v>
       </c>
-      <c r="J91" s="18">
+      <c r="J91" s="17">
         <v>68.430780757363834</v>
       </c>
-      <c r="K91" s="18">
+      <c r="K91" s="17">
         <v>68.440933564177286</v>
       </c>
-      <c r="L91" s="18">
+      <c r="L91" s="17">
         <v>72.708469694026149</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M91" s="17">
         <v>80.17460118280934</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N91" s="17">
         <v>82.82805330479168</v>
       </c>
-      <c r="O91" s="18">
+      <c r="O91" s="17">
         <v>85.61281099935735</v>
       </c>
-      <c r="P91" s="18">
+      <c r="P91" s="17">
         <v>88.373200734640662</v>
       </c>
-      <c r="Q91" s="18">
+      <c r="Q91" s="17">
         <v>87.611964236817684</v>
       </c>
-      <c r="R91" s="18">
+      <c r="R91" s="17">
         <v>89.233799247462116</v>
       </c>
-      <c r="S91" s="18">
+      <c r="S91" s="17">
         <v>92.330427248052217</v>
       </c>
-      <c r="T91" s="18">
+      <c r="T91" s="17">
         <v>100.00000000000003</v>
       </c>
-      <c r="U91" s="18">
+      <c r="U91" s="17">
         <v>100.95675260984002</v>
       </c>
-      <c r="V91" s="18">
+      <c r="V91" s="17">
         <v>104.12462998385857</v>
       </c>
-      <c r="W91" s="18">
+      <c r="W91" s="17">
         <v>107.66495089146073</v>
       </c>
-      <c r="X91" s="9"/>
+      <c r="X91" s="17">
+        <v>113.28899974644793</v>
+      </c>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -27883,77 +27943,79 @@
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="17">
         <v>48.990833248470658</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="17">
         <v>50.548540876039482</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="17">
         <v>51.993536606933958</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="17">
         <v>53.528783215749634</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="17">
         <v>55.900511230619422</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="17">
         <v>59.324694463435264</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="17">
         <v>62.71997445101124</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="17">
         <v>64.616687950730011</v>
       </c>
-      <c r="J92" s="18">
+      <c r="J92" s="17">
         <v>71.283141035770242</v>
       </c>
-      <c r="K92" s="18">
+      <c r="K92" s="17">
         <v>73.818933378782845</v>
       </c>
-      <c r="L92" s="18">
+      <c r="L92" s="17">
         <v>78.440354118425688</v>
       </c>
-      <c r="M92" s="18">
+      <c r="M92" s="17">
         <v>81.409105529722055</v>
       </c>
-      <c r="N92" s="18">
+      <c r="N92" s="17">
         <v>83.560508324952494</v>
       </c>
-      <c r="O92" s="18">
+      <c r="O92" s="17">
         <v>87.417455735139697</v>
       </c>
-      <c r="P92" s="18">
+      <c r="P92" s="17">
         <v>90.025929892895078</v>
       </c>
-      <c r="Q92" s="18">
+      <c r="Q92" s="17">
         <v>91.798507830796552</v>
       </c>
-      <c r="R92" s="18">
+      <c r="R92" s="17">
         <v>94.531436142925273</v>
       </c>
-      <c r="S92" s="18">
+      <c r="S92" s="17">
         <v>96.718887490980904</v>
       </c>
-      <c r="T92" s="18">
+      <c r="T92" s="17">
         <v>99.999999999999972</v>
       </c>
-      <c r="U92" s="18">
+      <c r="U92" s="17">
         <v>100.90901679972617</v>
       </c>
-      <c r="V92" s="18">
+      <c r="V92" s="17">
         <v>100.67603248130365</v>
       </c>
-      <c r="W92" s="18">
+      <c r="W92" s="17">
         <v>101.63109709186948</v>
       </c>
-      <c r="X92" s="9"/>
+      <c r="X92" s="17">
+        <v>106.48121317991924</v>
+      </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -28027,77 +28089,79 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="17">
         <v>50.4715218922871</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="17">
         <v>52.646416319282899</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>53.873448405976667</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="17">
         <v>56.203986530702153</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="17">
         <v>59.039456395496344</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="17">
         <v>66.05653618631078</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="17">
         <v>72.931770003529962</v>
       </c>
-      <c r="I93" s="18">
+      <c r="I93" s="17">
         <v>73.545294502433151</v>
       </c>
-      <c r="J93" s="18">
+      <c r="J93" s="17">
         <v>78.474187004697427</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="17">
         <v>75.902342891693962</v>
       </c>
-      <c r="L93" s="18">
+      <c r="L93" s="17">
         <v>81.472917746757958</v>
       </c>
-      <c r="M93" s="18">
+      <c r="M93" s="17">
         <v>87.405080299519753</v>
       </c>
-      <c r="N93" s="18">
+      <c r="N93" s="17">
         <v>89.794844997526653</v>
       </c>
-      <c r="O93" s="18">
+      <c r="O93" s="17">
         <v>92.6147867054339</v>
       </c>
-      <c r="P93" s="18">
+      <c r="P93" s="17">
         <v>93.920306381978676</v>
       </c>
-      <c r="Q93" s="18">
+      <c r="Q93" s="17">
         <v>89.165692697281912</v>
       </c>
-      <c r="R93" s="18">
+      <c r="R93" s="17">
         <v>88.50140002956762</v>
       </c>
-      <c r="S93" s="18">
+      <c r="S93" s="17">
         <v>92.347329796601883</v>
       </c>
-      <c r="T93" s="18">
+      <c r="T93" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="U93" s="18">
+      <c r="U93" s="17">
         <v>97.558796884472628</v>
       </c>
-      <c r="V93" s="18">
+      <c r="V93" s="17">
         <v>98.565907662890098</v>
       </c>
-      <c r="W93" s="18">
+      <c r="W93" s="17">
         <v>98.303940932693848</v>
       </c>
-      <c r="X93" s="9"/>
+      <c r="X93" s="17">
+        <v>100.39256340042596</v>
+      </c>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
@@ -28171,8 +28235,8 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -28269,77 +28333,79 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="17">
         <v>45.767276794814912</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="17">
         <v>47.936702198619045</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>49.666019968477691</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="17">
         <v>51.502848125757048</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="17">
         <v>54.307779507086288</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="17">
         <v>58.582028759865842</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="17">
         <v>62.57596698046315</v>
       </c>
-      <c r="I95" s="18">
+      <c r="I95" s="17">
         <v>64.568136948593107</v>
       </c>
-      <c r="J95" s="18">
+      <c r="J95" s="17">
         <v>70.883926199315837</v>
       </c>
-      <c r="K95" s="18">
+      <c r="K95" s="17">
         <v>72.774250737891748</v>
       </c>
-      <c r="L95" s="18">
+      <c r="L95" s="17">
         <v>77.389406522096081</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="17">
         <v>81.410411192235358</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="17">
         <v>83.661663965865216</v>
       </c>
-      <c r="O95" s="18">
+      <c r="O95" s="17">
         <v>87.276593264180079</v>
       </c>
-      <c r="P95" s="18">
+      <c r="P95" s="17">
         <v>89.858051964929217</v>
       </c>
-      <c r="Q95" s="18">
+      <c r="Q95" s="17">
         <v>90.894846480194971</v>
       </c>
-      <c r="R95" s="18">
+      <c r="R95" s="17">
         <v>93.272951572591396</v>
       </c>
-      <c r="S95" s="18">
+      <c r="S95" s="17">
         <v>95.71386430453164</v>
       </c>
-      <c r="T95" s="18">
+      <c r="T95" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="U95" s="18">
+      <c r="U95" s="17">
         <v>100.81258960590564</v>
       </c>
-      <c r="V95" s="18">
+      <c r="V95" s="17">
         <v>101.27716066805826</v>
       </c>
-      <c r="W95" s="18">
+      <c r="W95" s="17">
         <v>102.60403203406167</v>
       </c>
-      <c r="X95" s="9"/>
+      <c r="X95" s="17">
+        <v>107.45966803000601</v>
+      </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28413,67 +28479,68 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
-      <c r="U96" s="13"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
+    <row r="96" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
         <v>6</v>
@@ -28499,152 +28566,158 @@
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="14">
         <v>2000</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="14">
         <v>2001</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="14">
         <v>2002</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="14">
         <v>2003</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="14">
         <v>2004</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="14">
         <v>2005</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H109" s="14">
         <v>2006</v>
       </c>
-      <c r="I109" s="15">
+      <c r="I109" s="14">
         <v>2007</v>
       </c>
-      <c r="J109" s="15">
+      <c r="J109" s="14">
         <v>2008</v>
       </c>
-      <c r="K109" s="15">
+      <c r="K109" s="14">
         <v>2009</v>
       </c>
-      <c r="L109" s="15">
+      <c r="L109" s="14">
         <v>2010</v>
       </c>
-      <c r="M109" s="15">
+      <c r="M109" s="14">
         <v>2011</v>
       </c>
-      <c r="N109" s="15">
+      <c r="N109" s="14">
         <v>2012</v>
       </c>
-      <c r="O109" s="15">
+      <c r="O109" s="14">
         <v>2013</v>
       </c>
-      <c r="P109" s="15">
+      <c r="P109" s="14">
         <v>2014</v>
       </c>
-      <c r="Q109" s="15">
+      <c r="Q109" s="14">
         <v>2015</v>
       </c>
-      <c r="R109" s="15">
+      <c r="R109" s="14">
         <v>2016</v>
       </c>
-      <c r="S109" s="15">
+      <c r="S109" s="14">
         <v>2017</v>
       </c>
-      <c r="T109" s="15">
+      <c r="T109" s="14">
         <v>2018</v>
       </c>
-      <c r="U109" s="15">
+      <c r="U109" s="14">
         <v>2019</v>
       </c>
-      <c r="V109" s="15">
+      <c r="V109" s="14">
         <v>2020</v>
       </c>
-      <c r="W109" s="15">
+      <c r="W109" s="14">
         <v>2021</v>
       </c>
+      <c r="X109" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="17">
         <v>20.69524094361196</v>
       </c>
-      <c r="C111" s="18">
+      <c r="C111" s="17">
         <v>20.430134048127623</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="17">
         <v>19.963753064790751</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="17">
         <v>19.669266420849489</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="17">
         <v>21.421343167505768</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="17">
         <v>21.829007737758197</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="17">
         <v>22.887956156889853</v>
       </c>
-      <c r="I111" s="18">
+      <c r="I111" s="17">
         <v>22.863926865202714</v>
       </c>
-      <c r="J111" s="18">
+      <c r="J111" s="17">
         <v>23.55253085373289</v>
       </c>
-      <c r="K111" s="18">
+      <c r="K111" s="17">
         <v>19.860104235954132</v>
       </c>
-      <c r="L111" s="18">
+      <c r="L111" s="17">
         <v>19.306015725407953</v>
       </c>
-      <c r="M111" s="18">
+      <c r="M111" s="17">
         <v>19.104847894754855</v>
       </c>
-      <c r="N111" s="18">
+      <c r="N111" s="17">
         <v>18.715937186770628</v>
       </c>
-      <c r="O111" s="18">
+      <c r="O111" s="17">
         <v>17.996274850022726</v>
       </c>
-      <c r="P111" s="18">
+      <c r="P111" s="17">
         <v>18.411689560329016</v>
       </c>
-      <c r="Q111" s="18">
+      <c r="Q111" s="17">
         <v>18.583675074204667</v>
       </c>
-      <c r="R111" s="18">
+      <c r="R111" s="17">
         <v>18.793161774347048</v>
       </c>
-      <c r="S111" s="18">
+      <c r="S111" s="17">
         <v>18.841279345673549</v>
       </c>
-      <c r="T111" s="18">
+      <c r="T111" s="17">
         <v>19.512105789890967</v>
       </c>
-      <c r="U111" s="18">
+      <c r="U111" s="17">
         <v>19.363391556596557</v>
       </c>
-      <c r="V111" s="18">
+      <c r="V111" s="17">
         <v>19.155948928565273</v>
       </c>
-      <c r="W111" s="18">
+      <c r="W111" s="17">
         <v>18.135404422970133</v>
       </c>
-      <c r="X111" s="9"/>
+      <c r="X111" s="17">
+        <v>17.379475891855503</v>
+      </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -28718,77 +28791,79 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="17">
         <v>74.164983476693394</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="17">
         <v>74.389307123676915</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="17">
         <v>74.901756485291685</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="17">
         <v>74.592472219767444</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="17">
         <v>71.781744285148335</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="17">
         <v>72.342895771530479</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="17">
         <v>71.599349789894902</v>
       </c>
-      <c r="I112" s="18">
+      <c r="I112" s="17">
         <v>72.204906165578691</v>
       </c>
-      <c r="J112" s="18">
+      <c r="J112" s="17">
         <v>71.880136544078141</v>
       </c>
-      <c r="K112" s="18">
+      <c r="K112" s="17">
         <v>75.583376115270013</v>
       </c>
-      <c r="L112" s="18">
+      <c r="L112" s="17">
         <v>76.28883956051861</v>
       </c>
-      <c r="M112" s="18">
+      <c r="M112" s="17">
         <v>76.583560693101433</v>
       </c>
-      <c r="N112" s="18">
+      <c r="N112" s="17">
         <v>77.158722417484469</v>
       </c>
-      <c r="O112" s="18">
+      <c r="O112" s="17">
         <v>78.119955748432247</v>
       </c>
-      <c r="P112" s="18">
+      <c r="P112" s="17">
         <v>77.78979626852832</v>
       </c>
-      <c r="Q112" s="18">
+      <c r="Q112" s="17">
         <v>77.82096114593142</v>
       </c>
-      <c r="R112" s="18">
+      <c r="R112" s="17">
         <v>77.779289055068517</v>
       </c>
-      <c r="S112" s="18">
+      <c r="S112" s="17">
         <v>77.894891304879124</v>
       </c>
-      <c r="T112" s="18">
+      <c r="T112" s="17">
         <v>77.360322213316195</v>
       </c>
-      <c r="U112" s="18">
+      <c r="U112" s="17">
         <v>77.584656294707912</v>
       </c>
-      <c r="V112" s="18">
+      <c r="V112" s="17">
         <v>78.933783275077147</v>
       </c>
-      <c r="W112" s="18">
+      <c r="W112" s="17">
         <v>79.851989483352597</v>
       </c>
-      <c r="X112" s="9"/>
+      <c r="X112" s="17">
+        <v>80.413723238806739</v>
+      </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -28862,77 +28937,79 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="17">
         <v>5.139775579694664</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C113" s="17">
         <v>5.1805588281954709</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="17">
         <v>5.1344904499175685</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="17">
         <v>5.7382613593830536</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="17">
         <v>6.7969125473458876</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="17">
         <v>5.8280964907113209</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113" s="17">
         <v>5.5126940532152524</v>
       </c>
-      <c r="I113" s="18">
+      <c r="I113" s="17">
         <v>4.9311669692186033</v>
       </c>
-      <c r="J113" s="18">
+      <c r="J113" s="17">
         <v>4.5673326021889675</v>
       </c>
-      <c r="K113" s="18">
+      <c r="K113" s="17">
         <v>4.5565196487758506</v>
       </c>
-      <c r="L113" s="18">
+      <c r="L113" s="17">
         <v>4.4051447140734421</v>
       </c>
-      <c r="M113" s="18">
+      <c r="M113" s="17">
         <v>4.3115914121436925</v>
       </c>
-      <c r="N113" s="18">
+      <c r="N113" s="17">
         <v>4.1253403957448951</v>
       </c>
-      <c r="O113" s="18">
+      <c r="O113" s="17">
         <v>3.8837694015450333</v>
       </c>
-      <c r="P113" s="18">
+      <c r="P113" s="17">
         <v>3.7985141711426529</v>
       </c>
-      <c r="Q113" s="18">
+      <c r="Q113" s="17">
         <v>3.5953637798639098</v>
       </c>
-      <c r="R113" s="18">
+      <c r="R113" s="17">
         <v>3.4275491705844394</v>
       </c>
-      <c r="S113" s="18">
+      <c r="S113" s="17">
         <v>3.2638293494473296</v>
       </c>
-      <c r="T113" s="18">
+      <c r="T113" s="17">
         <v>3.1275719967928399</v>
       </c>
-      <c r="U113" s="18">
+      <c r="U113" s="17">
         <v>3.0519521486955257</v>
       </c>
-      <c r="V113" s="18">
+      <c r="V113" s="17">
         <v>1.9102677963575769</v>
       </c>
-      <c r="W113" s="18">
+      <c r="W113" s="17">
         <v>2.0126060936772707</v>
       </c>
-      <c r="X113" s="9"/>
+      <c r="X113" s="17">
+        <v>2.2068008693377577</v>
+      </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -29006,8 +29083,8 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -29104,77 +29181,79 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="17">
         <v>100</v>
       </c>
-      <c r="C115" s="18">
+      <c r="C115" s="17">
         <v>100</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="17">
         <v>100</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="17">
         <v>100</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="17">
         <v>100</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="17">
         <v>100</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115" s="17">
         <v>100</v>
       </c>
-      <c r="I115" s="18">
+      <c r="I115" s="17">
         <v>100</v>
       </c>
-      <c r="J115" s="18">
+      <c r="J115" s="17">
         <v>100</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K115" s="17">
         <v>100</v>
       </c>
-      <c r="L115" s="18">
+      <c r="L115" s="17">
         <v>100</v>
       </c>
-      <c r="M115" s="18">
+      <c r="M115" s="17">
         <v>100</v>
       </c>
-      <c r="N115" s="18">
+      <c r="N115" s="17">
         <v>100</v>
       </c>
-      <c r="O115" s="18">
+      <c r="O115" s="17">
         <v>100</v>
       </c>
-      <c r="P115" s="18">
+      <c r="P115" s="17">
         <v>100</v>
       </c>
-      <c r="Q115" s="18">
+      <c r="Q115" s="17">
         <v>100</v>
       </c>
-      <c r="R115" s="18">
+      <c r="R115" s="17">
         <v>100</v>
       </c>
-      <c r="S115" s="18">
+      <c r="S115" s="17">
         <v>100</v>
       </c>
-      <c r="T115" s="18">
+      <c r="T115" s="17">
         <v>100</v>
       </c>
-      <c r="U115" s="18">
+      <c r="U115" s="17">
         <v>100</v>
       </c>
-      <c r="V115" s="18">
+      <c r="V115" s="17">
         <v>100</v>
       </c>
-      <c r="W115" s="18">
+      <c r="W115" s="17">
         <v>100</v>
       </c>
-      <c r="X115" s="9"/>
+      <c r="X115" s="17">
+        <v>100</v>
+      </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -29248,38 +29327,39 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
+    <row r="116" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -29376,8 +29456,8 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -29474,37 +29554,37 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -29530,152 +29610,158 @@
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="14">
         <v>2000</v>
       </c>
-      <c r="C129" s="15">
+      <c r="C129" s="14">
         <v>2001</v>
       </c>
-      <c r="D129" s="15">
+      <c r="D129" s="14">
         <v>2002</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="14">
         <v>2003</v>
       </c>
-      <c r="F129" s="15">
+      <c r="F129" s="14">
         <v>2004</v>
       </c>
-      <c r="G129" s="15">
+      <c r="G129" s="14">
         <v>2005</v>
       </c>
-      <c r="H129" s="15">
+      <c r="H129" s="14">
         <v>2006</v>
       </c>
-      <c r="I129" s="15">
+      <c r="I129" s="14">
         <v>2007</v>
       </c>
-      <c r="J129" s="15">
+      <c r="J129" s="14">
         <v>2008</v>
       </c>
-      <c r="K129" s="15">
+      <c r="K129" s="14">
         <v>2009</v>
       </c>
-      <c r="L129" s="15">
+      <c r="L129" s="14">
         <v>2010</v>
       </c>
-      <c r="M129" s="15">
+      <c r="M129" s="14">
         <v>2011</v>
       </c>
-      <c r="N129" s="15">
+      <c r="N129" s="14">
         <v>2012</v>
       </c>
-      <c r="O129" s="15">
+      <c r="O129" s="14">
         <v>2013</v>
       </c>
-      <c r="P129" s="15">
+      <c r="P129" s="14">
         <v>2014</v>
       </c>
-      <c r="Q129" s="15">
+      <c r="Q129" s="14">
         <v>2015</v>
       </c>
-      <c r="R129" s="15">
+      <c r="R129" s="14">
         <v>2016</v>
       </c>
-      <c r="S129" s="15">
+      <c r="S129" s="14">
         <v>2017</v>
       </c>
-      <c r="T129" s="15">
+      <c r="T129" s="14">
         <v>2018</v>
       </c>
-      <c r="U129" s="15">
+      <c r="U129" s="14">
         <v>2019</v>
       </c>
-      <c r="V129" s="15">
+      <c r="V129" s="14">
         <v>2020</v>
       </c>
-      <c r="W129" s="15">
+      <c r="W129" s="14">
         <v>2021</v>
       </c>
+      <c r="X129" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="130" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="17">
         <v>26.054293294806964</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C131" s="17">
         <v>24.737272447560379</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="17">
         <v>23.717762937723197</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="17">
         <v>22.972383612480026</v>
       </c>
-      <c r="F131" s="18">
+      <c r="F131" s="17">
         <v>24.011300973642854</v>
       </c>
-      <c r="G131" s="18">
+      <c r="G131" s="17">
         <v>23.394111560067504</v>
       </c>
-      <c r="H131" s="18">
+      <c r="H131" s="17">
         <v>23.835115147656015</v>
       </c>
-      <c r="I131" s="18">
+      <c r="I131" s="17">
         <v>23.520092340150971</v>
       </c>
-      <c r="J131" s="18">
+      <c r="J131" s="17">
         <v>24.396855338574476</v>
       </c>
-      <c r="K131" s="18">
+      <c r="K131" s="17">
         <v>21.117540776861631</v>
       </c>
-      <c r="L131" s="18">
+      <c r="L131" s="17">
         <v>20.548927870205635</v>
       </c>
-      <c r="M131" s="18">
+      <c r="M131" s="17">
         <v>19.399329712045912</v>
       </c>
-      <c r="N131" s="18">
+      <c r="N131" s="17">
         <v>18.904300961462557</v>
       </c>
-      <c r="O131" s="18">
+      <c r="O131" s="17">
         <v>18.346010860075804</v>
       </c>
-      <c r="P131" s="18">
+      <c r="P131" s="17">
         <v>18.721043749925879</v>
       </c>
-      <c r="Q131" s="18">
+      <c r="Q131" s="17">
         <v>19.280018518267777</v>
       </c>
-      <c r="R131" s="18">
+      <c r="R131" s="17">
         <v>19.643830957073163</v>
       </c>
-      <c r="S131" s="18">
+      <c r="S131" s="17">
         <v>19.531715690762343</v>
       </c>
-      <c r="T131" s="18">
+      <c r="T131" s="17">
         <v>19.512105789890963</v>
       </c>
-      <c r="U131" s="18">
+      <c r="U131" s="17">
         <v>19.335741254650486</v>
       </c>
-      <c r="V131" s="18">
+      <c r="V131" s="17">
         <v>18.632096149471771</v>
       </c>
-      <c r="W131" s="18">
+      <c r="W131" s="17">
         <v>17.282928204193095</v>
       </c>
-      <c r="X131" s="9"/>
+      <c r="X131" s="17">
+        <v>16.485207867084569</v>
+      </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -29749,77 +29835,79 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="17">
         <v>69.284988684422117</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C132" s="17">
         <v>70.545618143443193</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="17">
         <v>71.548741940674887</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="17">
         <v>71.769327402329125</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="17">
         <v>69.736520390471767</v>
       </c>
-      <c r="G132" s="18">
+      <c r="G132" s="17">
         <v>71.437259626711764</v>
       </c>
-      <c r="H132" s="18">
+      <c r="H132" s="17">
         <v>71.434954932492914</v>
       </c>
-      <c r="I132" s="18">
+      <c r="I132" s="17">
         <v>72.150653608465063</v>
       </c>
-      <c r="J132" s="18">
+      <c r="J132" s="17">
         <v>71.477578287836806</v>
       </c>
-      <c r="K132" s="18">
+      <c r="K132" s="17">
         <v>74.513723150191254</v>
       </c>
-      <c r="L132" s="18">
+      <c r="L132" s="17">
         <v>75.266718058595558</v>
       </c>
-      <c r="M132" s="18">
+      <c r="M132" s="17">
         <v>76.584788962146789</v>
       </c>
-      <c r="N132" s="18">
+      <c r="N132" s="17">
         <v>77.252128264033345</v>
       </c>
-      <c r="O132" s="18">
+      <c r="O132" s="17">
         <v>77.994075054405641</v>
       </c>
-      <c r="P132" s="18">
+      <c r="P132" s="17">
         <v>77.644735952795045</v>
       </c>
-      <c r="Q132" s="18">
+      <c r="Q132" s="17">
         <v>77.054894283669711</v>
       </c>
-      <c r="R132" s="18">
+      <c r="R132" s="17">
         <v>76.743823614563112</v>
       </c>
-      <c r="S132" s="18">
+      <c r="S132" s="17">
         <v>77.085471615527851</v>
       </c>
-      <c r="T132" s="18">
+      <c r="T132" s="17">
         <v>77.360322213316195</v>
       </c>
-      <c r="U132" s="18">
+      <c r="U132" s="17">
         <v>77.510517521709303</v>
       </c>
-      <c r="V132" s="18">
+      <c r="V132" s="17">
         <v>79.40509030659571</v>
       </c>
-      <c r="W132" s="18">
+      <c r="W132" s="17">
         <v>80.616428646118777</v>
       </c>
-      <c r="X132" s="9"/>
+      <c r="X132" s="17">
+        <v>81.152644172996332</v>
+      </c>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -29893,77 +29981,79 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="17">
         <v>4.6607180207709087</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C133" s="17">
         <v>4.7171094089964409</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="17">
         <v>4.7334951216019325</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="17">
         <v>5.258288985190843</v>
       </c>
-      <c r="F133" s="18">
+      <c r="F133" s="17">
         <v>6.2521786358853779</v>
       </c>
-      <c r="G133" s="18">
+      <c r="G133" s="17">
         <v>5.1686288132207325</v>
       </c>
-      <c r="H133" s="18">
+      <c r="H133" s="17">
         <v>4.7299299198510703</v>
       </c>
-      <c r="I133" s="18">
+      <c r="I133" s="17">
         <v>4.3292540513839652</v>
       </c>
-      <c r="J133" s="18">
+      <c r="J133" s="17">
         <v>4.1255663735887111</v>
       </c>
-      <c r="K133" s="18">
+      <c r="K133" s="17">
         <v>4.3687360729471116</v>
       </c>
-      <c r="L133" s="18">
+      <c r="L133" s="17">
         <v>4.1843540711988085</v>
       </c>
-      <c r="M133" s="18">
+      <c r="M133" s="17">
         <v>4.0158813258072978</v>
       </c>
-      <c r="N133" s="18">
+      <c r="N133" s="17">
         <v>3.8435707745040975</v>
       </c>
-      <c r="O133" s="18">
+      <c r="O133" s="17">
         <v>3.6599140855185528</v>
       </c>
-      <c r="P133" s="18">
+      <c r="P133" s="17">
         <v>3.6342202972790769</v>
       </c>
-      <c r="Q133" s="18">
+      <c r="Q133" s="17">
         <v>3.6650871980625075</v>
       </c>
-      <c r="R133" s="18">
+      <c r="R133" s="17">
         <v>3.6123454283637293</v>
       </c>
-      <c r="S133" s="18">
+      <c r="S133" s="17">
         <v>3.3828126937097927</v>
       </c>
-      <c r="T133" s="18">
+      <c r="T133" s="17">
         <v>3.1275719967928399</v>
       </c>
-      <c r="U133" s="18">
+      <c r="U133" s="17">
         <v>3.1537412236402149</v>
       </c>
-      <c r="V133" s="18">
+      <c r="V133" s="17">
         <v>1.9628135439325309</v>
       </c>
-      <c r="W133" s="18">
+      <c r="W133" s="17">
         <v>2.100643149688135</v>
       </c>
-      <c r="X133" s="9"/>
+      <c r="X133" s="17">
+        <v>2.3621479599190907</v>
+      </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -30037,8 +30127,8 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -30135,77 +30225,79 @@
       <c r="CQ134" s="9"/>
       <c r="CR134" s="9"/>
     </row>
-    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="17">
         <v>100</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C135" s="17">
         <v>100</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="17">
         <v>100</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="17">
         <v>100</v>
       </c>
-      <c r="F135" s="18">
+      <c r="F135" s="17">
         <v>100</v>
       </c>
-      <c r="G135" s="18">
+      <c r="G135" s="17">
         <v>100</v>
       </c>
-      <c r="H135" s="18">
+      <c r="H135" s="17">
         <v>100</v>
       </c>
-      <c r="I135" s="18">
+      <c r="I135" s="17">
         <v>100</v>
       </c>
-      <c r="J135" s="18">
+      <c r="J135" s="17">
         <v>100</v>
       </c>
-      <c r="K135" s="18">
+      <c r="K135" s="17">
         <v>100</v>
       </c>
-      <c r="L135" s="18">
+      <c r="L135" s="17">
         <v>100</v>
       </c>
-      <c r="M135" s="18">
+      <c r="M135" s="17">
         <v>100</v>
       </c>
-      <c r="N135" s="18">
+      <c r="N135" s="17">
         <v>100</v>
       </c>
-      <c r="O135" s="18">
+      <c r="O135" s="17">
         <v>100</v>
       </c>
-      <c r="P135" s="18">
+      <c r="P135" s="17">
         <v>100</v>
       </c>
-      <c r="Q135" s="18">
+      <c r="Q135" s="17">
         <v>100</v>
       </c>
-      <c r="R135" s="18">
+      <c r="R135" s="17">
         <v>100</v>
       </c>
-      <c r="S135" s="18">
+      <c r="S135" s="17">
         <v>100</v>
       </c>
-      <c r="T135" s="18">
+      <c r="T135" s="17">
         <v>100</v>
       </c>
-      <c r="U135" s="18">
+      <c r="U135" s="17">
         <v>100</v>
       </c>
-      <c r="V135" s="18">
+      <c r="V135" s="17">
         <v>100</v>
       </c>
-      <c r="W135" s="18">
+      <c r="W135" s="17">
         <v>100</v>
       </c>
-      <c r="X135" s="9"/>
+      <c r="X135" s="17">
+        <v>100</v>
+      </c>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
@@ -30279,231 +30371,232 @@
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
     </row>
-    <row r="136" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="13"/>
-      <c r="R136" s="13"/>
-      <c r="S136" s="13"/>
-      <c r="T136" s="13"/>
-      <c r="U136" s="13"/>
-      <c r="V136" s="13"/>
-      <c r="W136" s="13"/>
+    <row r="136" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="19"/>
-      <c r="AA138" s="19"/>
-      <c r="AB138" s="19"/>
-      <c r="AC138" s="19"/>
-      <c r="AD138" s="19"/>
-      <c r="AE138" s="19"/>
-      <c r="AF138" s="19"/>
-      <c r="AG138" s="19"/>
-      <c r="AH138" s="19"/>
-      <c r="AI138" s="19"/>
-      <c r="AJ138" s="19"/>
-      <c r="AK138" s="19"/>
-      <c r="AL138" s="19"/>
-      <c r="AM138" s="19"/>
-      <c r="AN138" s="19"/>
-      <c r="AO138" s="19"/>
-      <c r="AP138" s="19"/>
-      <c r="AQ138" s="19"/>
-      <c r="AR138" s="19"/>
-      <c r="AS138" s="19"/>
-      <c r="AT138" s="19"/>
-      <c r="AU138" s="19"/>
-      <c r="AV138" s="19"/>
-      <c r="AW138" s="19"/>
-      <c r="AX138" s="19"/>
-      <c r="AY138" s="19"/>
-      <c r="AZ138" s="19"/>
-      <c r="BA138" s="19"/>
-      <c r="BB138" s="19"/>
-      <c r="BC138" s="19"/>
-      <c r="BD138" s="19"/>
-      <c r="BE138" s="19"/>
-      <c r="BF138" s="19"/>
-      <c r="BG138" s="19"/>
-      <c r="BH138" s="19"/>
-      <c r="BI138" s="19"/>
-      <c r="BJ138" s="19"/>
-      <c r="BK138" s="19"/>
-      <c r="BL138" s="19"/>
-      <c r="BM138" s="19"/>
-      <c r="BN138" s="19"/>
-      <c r="BO138" s="19"/>
-      <c r="BP138" s="19"/>
-      <c r="BQ138" s="19"/>
-      <c r="BR138" s="19"/>
-      <c r="BS138" s="19"/>
-      <c r="BT138" s="19"/>
-      <c r="BU138" s="19"/>
-      <c r="BV138" s="19"/>
-      <c r="BW138" s="19"/>
-      <c r="BX138" s="19"/>
-      <c r="BY138" s="19"/>
-      <c r="BZ138" s="19"/>
-      <c r="CA138" s="19"/>
-      <c r="CB138" s="19"/>
-      <c r="CC138" s="19"/>
-      <c r="CD138" s="19"/>
-      <c r="CE138" s="19"/>
-      <c r="CF138" s="19"/>
-      <c r="CG138" s="19"/>
-      <c r="CH138" s="19"/>
-      <c r="CI138" s="19"/>
-      <c r="CJ138" s="19"/>
-      <c r="CK138" s="19"/>
-      <c r="CL138" s="19"/>
-      <c r="CM138" s="19"/>
-      <c r="CN138" s="19"/>
-      <c r="CO138" s="19"/>
-      <c r="CP138" s="19"/>
-      <c r="CQ138" s="19"/>
-      <c r="CR138" s="19"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="18"/>
+      <c r="U138" s="18"/>
+      <c r="V138" s="18"/>
+      <c r="W138" s="18"/>
+      <c r="X138" s="18"/>
+      <c r="Y138" s="18"/>
+      <c r="Z138" s="18"/>
+      <c r="AA138" s="18"/>
+      <c r="AB138" s="18"/>
+      <c r="AC138" s="18"/>
+      <c r="AD138" s="18"/>
+      <c r="AE138" s="18"/>
+      <c r="AF138" s="18"/>
+      <c r="AG138" s="18"/>
+      <c r="AH138" s="18"/>
+      <c r="AI138" s="18"/>
+      <c r="AJ138" s="18"/>
+      <c r="AK138" s="18"/>
+      <c r="AL138" s="18"/>
+      <c r="AM138" s="18"/>
+      <c r="AN138" s="18"/>
+      <c r="AO138" s="18"/>
+      <c r="AP138" s="18"/>
+      <c r="AQ138" s="18"/>
+      <c r="AR138" s="18"/>
+      <c r="AS138" s="18"/>
+      <c r="AT138" s="18"/>
+      <c r="AU138" s="18"/>
+      <c r="AV138" s="18"/>
+      <c r="AW138" s="18"/>
+      <c r="AX138" s="18"/>
+      <c r="AY138" s="18"/>
+      <c r="AZ138" s="18"/>
+      <c r="BA138" s="18"/>
+      <c r="BB138" s="18"/>
+      <c r="BC138" s="18"/>
+      <c r="BD138" s="18"/>
+      <c r="BE138" s="18"/>
+      <c r="BF138" s="18"/>
+      <c r="BG138" s="18"/>
+      <c r="BH138" s="18"/>
+      <c r="BI138" s="18"/>
+      <c r="BJ138" s="18"/>
+      <c r="BK138" s="18"/>
+      <c r="BL138" s="18"/>
+      <c r="BM138" s="18"/>
+      <c r="BN138" s="18"/>
+      <c r="BO138" s="18"/>
+      <c r="BP138" s="18"/>
+      <c r="BQ138" s="18"/>
+      <c r="BR138" s="18"/>
+      <c r="BS138" s="18"/>
+      <c r="BT138" s="18"/>
+      <c r="BU138" s="18"/>
+      <c r="BV138" s="18"/>
+      <c r="BW138" s="18"/>
+      <c r="BX138" s="18"/>
+      <c r="BY138" s="18"/>
+      <c r="BZ138" s="18"/>
+      <c r="CA138" s="18"/>
+      <c r="CB138" s="18"/>
+      <c r="CC138" s="18"/>
+      <c r="CD138" s="18"/>
+      <c r="CE138" s="18"/>
+      <c r="CF138" s="18"/>
+      <c r="CG138" s="18"/>
+      <c r="CH138" s="18"/>
+      <c r="CI138" s="18"/>
+      <c r="CJ138" s="18"/>
+      <c r="CK138" s="18"/>
+      <c r="CL138" s="18"/>
+      <c r="CM138" s="18"/>
+      <c r="CN138" s="18"/>
+      <c r="CO138" s="18"/>
+      <c r="CP138" s="18"/>
+      <c r="CQ138" s="18"/>
+      <c r="CR138" s="18"/>
     </row>
-    <row r="139" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
-      <c r="T139" s="19"/>
-      <c r="U139" s="19"/>
-      <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
-      <c r="Z139" s="19"/>
-      <c r="AA139" s="19"/>
-      <c r="AB139" s="19"/>
-      <c r="AC139" s="19"/>
-      <c r="AD139" s="19"/>
-      <c r="AE139" s="19"/>
-      <c r="AF139" s="19"/>
-      <c r="AG139" s="19"/>
-      <c r="AH139" s="19"/>
-      <c r="AI139" s="19"/>
-      <c r="AJ139" s="19"/>
-      <c r="AK139" s="19"/>
-      <c r="AL139" s="19"/>
-      <c r="AM139" s="19"/>
-      <c r="AN139" s="19"/>
-      <c r="AO139" s="19"/>
-      <c r="AP139" s="19"/>
-      <c r="AQ139" s="19"/>
-      <c r="AR139" s="19"/>
-      <c r="AS139" s="19"/>
-      <c r="AT139" s="19"/>
-      <c r="AU139" s="19"/>
-      <c r="AV139" s="19"/>
-      <c r="AW139" s="19"/>
-      <c r="AX139" s="19"/>
-      <c r="AY139" s="19"/>
-      <c r="AZ139" s="19"/>
-      <c r="BA139" s="19"/>
-      <c r="BB139" s="19"/>
-      <c r="BC139" s="19"/>
-      <c r="BD139" s="19"/>
-      <c r="BE139" s="19"/>
-      <c r="BF139" s="19"/>
-      <c r="BG139" s="19"/>
-      <c r="BH139" s="19"/>
-      <c r="BI139" s="19"/>
-      <c r="BJ139" s="19"/>
-      <c r="BK139" s="19"/>
-      <c r="BL139" s="19"/>
-      <c r="BM139" s="19"/>
-      <c r="BN139" s="19"/>
-      <c r="BO139" s="19"/>
-      <c r="BP139" s="19"/>
-      <c r="BQ139" s="19"/>
-      <c r="BR139" s="19"/>
-      <c r="BS139" s="19"/>
-      <c r="BT139" s="19"/>
-      <c r="BU139" s="19"/>
-      <c r="BV139" s="19"/>
-      <c r="BW139" s="19"/>
-      <c r="BX139" s="19"/>
-      <c r="BY139" s="19"/>
-      <c r="BZ139" s="19"/>
-      <c r="CA139" s="19"/>
-      <c r="CB139" s="19"/>
-      <c r="CC139" s="19"/>
-      <c r="CD139" s="19"/>
-      <c r="CE139" s="19"/>
-      <c r="CF139" s="19"/>
-      <c r="CG139" s="19"/>
-      <c r="CH139" s="19"/>
-      <c r="CI139" s="19"/>
-      <c r="CJ139" s="19"/>
-      <c r="CK139" s="19"/>
-      <c r="CL139" s="19"/>
-      <c r="CM139" s="19"/>
-      <c r="CN139" s="19"/>
-      <c r="CO139" s="19"/>
-      <c r="CP139" s="19"/>
-      <c r="CQ139" s="19"/>
-      <c r="CR139" s="19"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
+      <c r="V139" s="18"/>
+      <c r="W139" s="18"/>
+      <c r="X139" s="18"/>
+      <c r="Y139" s="18"/>
+      <c r="Z139" s="18"/>
+      <c r="AA139" s="18"/>
+      <c r="AB139" s="18"/>
+      <c r="AC139" s="18"/>
+      <c r="AD139" s="18"/>
+      <c r="AE139" s="18"/>
+      <c r="AF139" s="18"/>
+      <c r="AG139" s="18"/>
+      <c r="AH139" s="18"/>
+      <c r="AI139" s="18"/>
+      <c r="AJ139" s="18"/>
+      <c r="AK139" s="18"/>
+      <c r="AL139" s="18"/>
+      <c r="AM139" s="18"/>
+      <c r="AN139" s="18"/>
+      <c r="AO139" s="18"/>
+      <c r="AP139" s="18"/>
+      <c r="AQ139" s="18"/>
+      <c r="AR139" s="18"/>
+      <c r="AS139" s="18"/>
+      <c r="AT139" s="18"/>
+      <c r="AU139" s="18"/>
+      <c r="AV139" s="18"/>
+      <c r="AW139" s="18"/>
+      <c r="AX139" s="18"/>
+      <c r="AY139" s="18"/>
+      <c r="AZ139" s="18"/>
+      <c r="BA139" s="18"/>
+      <c r="BB139" s="18"/>
+      <c r="BC139" s="18"/>
+      <c r="BD139" s="18"/>
+      <c r="BE139" s="18"/>
+      <c r="BF139" s="18"/>
+      <c r="BG139" s="18"/>
+      <c r="BH139" s="18"/>
+      <c r="BI139" s="18"/>
+      <c r="BJ139" s="18"/>
+      <c r="BK139" s="18"/>
+      <c r="BL139" s="18"/>
+      <c r="BM139" s="18"/>
+      <c r="BN139" s="18"/>
+      <c r="BO139" s="18"/>
+      <c r="BP139" s="18"/>
+      <c r="BQ139" s="18"/>
+      <c r="BR139" s="18"/>
+      <c r="BS139" s="18"/>
+      <c r="BT139" s="18"/>
+      <c r="BU139" s="18"/>
+      <c r="BV139" s="18"/>
+      <c r="BW139" s="18"/>
+      <c r="BX139" s="18"/>
+      <c r="BY139" s="18"/>
+      <c r="BZ139" s="18"/>
+      <c r="CA139" s="18"/>
+      <c r="CB139" s="18"/>
+      <c r="CC139" s="18"/>
+      <c r="CD139" s="18"/>
+      <c r="CE139" s="18"/>
+      <c r="CF139" s="18"/>
+      <c r="CG139" s="18"/>
+      <c r="CH139" s="18"/>
+      <c r="CI139" s="18"/>
+      <c r="CJ139" s="18"/>
+      <c r="CK139" s="18"/>
+      <c r="CL139" s="18"/>
+      <c r="CM139" s="18"/>
+      <c r="CN139" s="18"/>
+      <c r="CO139" s="18"/>
+      <c r="CP139" s="18"/>
+      <c r="CQ139" s="18"/>
+      <c r="CR139" s="18"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -30511,9 +30604,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="22" man="1"/>
-    <brk id="80" max="22" man="1"/>
-    <brk id="99" max="22" man="1"/>
+    <brk id="40" max="23" man="1"/>
+    <brk id="80" max="23" man="1"/>
+    <brk id="99" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E98DCA-5040-4FD6-B4D2-39C273AEBD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC8DB1-B562-4170-8877-6DDB804EAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -607,13 +607,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23567,10 +23567,10 @@
   </sheetPr>
   <dimension ref="A1:CR139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A80" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="W3" sqref="W3"/>
+      <selection pane="topRight" activeCell="V80" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23592,7 +23592,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23602,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23783,10 +23783,10 @@
         <v>635473.83339649253</v>
       </c>
       <c r="W12" s="8">
-        <v>635326.10345922422</v>
+        <v>635800.5404064001</v>
       </c>
       <c r="X12" s="8">
-        <v>692995.13077080552</v>
+        <v>690512.11359150161</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23929,10 +23929,10 @@
         <v>2618526.1836599652</v>
       </c>
       <c r="W13" s="8">
-        <v>2797404.0252264026</v>
+        <v>2796455.2401547981</v>
       </c>
       <c r="X13" s="8">
-        <v>3206444.1412619995</v>
+        <v>3209104.0722639225</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24075,10 +24075,10 @@
         <v>63370.663802252027</v>
       </c>
       <c r="W14" s="8">
-        <v>70506.35086332733</v>
+        <v>70538.713256827323</v>
       </c>
       <c r="X14" s="8">
-        <v>87994.728180987295</v>
+        <v>87902.880812709656</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24319,10 +24319,10 @@
         <v>3317370.6808587098</v>
       </c>
       <c r="W16" s="11">
-        <v>3503236.4795489539</v>
+        <v>3502794.493818026</v>
       </c>
       <c r="X16" s="11">
-        <v>3987434.0002137921</v>
+        <v>3987519.0666681337</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24636,7 +24636,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
@@ -24646,7 +24646,7 @@
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
@@ -24827,10 +24827,10 @@
         <v>610301.16841231892</v>
       </c>
       <c r="W32" s="8">
-        <v>590095.56796223274</v>
+        <v>590531.33601352875</v>
       </c>
       <c r="X32" s="8">
-        <v>611705.57805417804</v>
+        <v>609588.52073181455</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -24973,10 +24973,10 @@
         <v>2600942.9644004363</v>
       </c>
       <c r="W33" s="8">
-        <v>2752507.948130962</v>
+        <v>2751576.390629448</v>
       </c>
       <c r="X33" s="8">
-        <v>3011276.868008757</v>
+        <v>3013719.8555465583</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25119,10 +25119,10 @@
         <v>64292.680202356598</v>
       </c>
       <c r="W34" s="8">
-        <v>71722.812121643423</v>
+        <v>71756.175196177632</v>
       </c>
       <c r="X34" s="8">
-        <v>87650.643833060996</v>
+        <v>87559.678838668056</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25363,10 +25363,10 @@
         <v>3275536.8130151117</v>
       </c>
       <c r="W36" s="11">
-        <v>3414326.3282148377</v>
+        <v>3413863.9018391543</v>
       </c>
       <c r="X36" s="11">
-        <v>3710633.0898959963</v>
+        <v>3710868.0551170409</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25680,7 +25680,7 @@
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25690,7 +25690,7 @@
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25866,10 +25866,10 @@
         <v>-6.7039539269783859</v>
       </c>
       <c r="V52" s="17">
-        <v>-2.3247210113865435E-2</v>
+        <v>5.1411559805927709E-2</v>
       </c>
       <c r="W52" s="17">
-        <v>9.0770750639057667</v>
+        <v>8.6051473234247737</v>
       </c>
       <c r="X52" s="17"/>
       <c r="Y52" s="9"/>
@@ -26005,10 +26005,10 @@
         <v>-4.0537347998516822</v>
       </c>
       <c r="V53" s="17">
-        <v>6.8312412792610075</v>
+        <v>6.7950077262980813</v>
       </c>
       <c r="W53" s="17">
-        <v>14.622132246431292</v>
+        <v>14.756139350411416</v>
       </c>
       <c r="X53" s="17"/>
       <c r="Y53" s="9"/>
@@ -26144,10 +26144,10 @@
         <v>-40.972073215190804</v>
       </c>
       <c r="V54" s="17">
-        <v>11.260237202725534</v>
+        <v>11.311305617601192</v>
       </c>
       <c r="W54" s="17">
-        <v>24.803974540620061</v>
+        <v>24.616507381783975</v>
       </c>
       <c r="X54" s="17"/>
       <c r="Y54" s="9"/>
@@ -26376,10 +26376,10 @@
         <v>-5.6936371290746735</v>
       </c>
       <c r="V56" s="17">
-        <v>5.6028046477498918</v>
+        <v>5.5894812729013097</v>
       </c>
       <c r="W56" s="17">
-        <v>13.821434079356791</v>
+        <v>13.83822470046654</v>
       </c>
       <c r="X56" s="17"/>
       <c r="Y56" s="9"/>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:92" x14ac:dyDescent="0.2">
@@ -26689,7 +26689,7 @@
     </row>
     <row r="66" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:92" x14ac:dyDescent="0.2">
@@ -26865,10 +26865,10 @@
         <v>-9.5423835423914909</v>
       </c>
       <c r="V72" s="17">
-        <v>-3.3107589327823916</v>
+        <v>-3.2393567998928745</v>
       </c>
       <c r="W72" s="17">
-        <v>3.6621203861216571</v>
+        <v>3.2271250577376946</v>
       </c>
       <c r="X72" s="17"/>
       <c r="Y72" s="9"/>
@@ -27004,10 +27004,10 @@
         <v>-3.8316961015448641</v>
       </c>
       <c r="V73" s="17">
-        <v>5.8273090108096284</v>
+        <v>5.7914928658858713</v>
       </c>
       <c r="W73" s="17">
-        <v>9.4012051828408687</v>
+        <v>9.5270284266809853</v>
       </c>
       <c r="X73" s="17"/>
       <c r="Y73" s="9"/>
@@ -27143,10 +27143,10 @@
         <v>-41.57519921181774</v>
       </c>
       <c r="V74" s="17">
-        <v>11.556730713202541</v>
+        <v>11.608623206141374</v>
       </c>
       <c r="W74" s="17">
-        <v>22.207483561023267</v>
+        <v>22.023893552414791</v>
       </c>
       <c r="X74" s="17"/>
       <c r="Y74" s="9"/>
@@ -27375,10 +27375,10 @@
         <v>-6.1262322658033952</v>
       </c>
       <c r="V76" s="17">
-        <v>4.2371532705190731</v>
+        <v>4.2230356952304646</v>
       </c>
       <c r="W76" s="17">
-        <v>8.6783374873274255</v>
+        <v>8.6999412342677545</v>
       </c>
       <c r="X76" s="17"/>
       <c r="Y76" s="9"/>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:96" x14ac:dyDescent="0.2">
@@ -27684,7 +27684,7 @@
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
@@ -27865,10 +27865,10 @@
         <v>104.12462998385857</v>
       </c>
       <c r="W91" s="17">
-        <v>107.66495089146073</v>
+        <v>107.66584288286343</v>
       </c>
       <c r="X91" s="17">
-        <v>113.28899974644793</v>
+        <v>113.27511757644942</v>
       </c>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -28011,10 +28011,10 @@
         <v>100.67603248130365</v>
       </c>
       <c r="W92" s="17">
-        <v>101.63109709186948</v>
+        <v>101.63102320830293</v>
       </c>
       <c r="X92" s="17">
-        <v>106.48121317991924</v>
+        <v>106.48315789398181</v>
       </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -28157,10 +28157,10 @@
         <v>98.565907662890098</v>
       </c>
       <c r="W93" s="17">
-        <v>98.303940932693848</v>
+        <v>98.303334958946976</v>
       </c>
       <c r="X93" s="17">
-        <v>100.39256340042596</v>
+        <v>100.3919634911795</v>
       </c>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -28401,10 +28401,10 @@
         <v>101.27716066805826</v>
       </c>
       <c r="W95" s="17">
-        <v>102.60403203406167</v>
+        <v>102.60498351826392</v>
       </c>
       <c r="X95" s="17">
-        <v>107.45966803000601</v>
+        <v>107.45515624490096</v>
       </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28522,7 +28522,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -28532,7 +28532,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -28713,10 +28713,10 @@
         <v>19.155948928565273</v>
       </c>
       <c r="W111" s="17">
-        <v>18.135404422970133</v>
+        <v>18.151237291496972</v>
       </c>
       <c r="X111" s="17">
-        <v>17.379475891855503</v>
+        <v>17.316835406845474</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -28859,10 +28859,10 @@
         <v>78.933783275077147</v>
       </c>
       <c r="W112" s="17">
-        <v>79.851989483352597</v>
+        <v>79.834978760249157</v>
       </c>
       <c r="X112" s="17">
-        <v>80.413723238806739</v>
+        <v>80.478714173155424</v>
       </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -29005,10 +29005,10 @@
         <v>1.9102677963575769</v>
       </c>
       <c r="W113" s="17">
-        <v>2.0126060936772707</v>
+        <v>2.0137839482538564</v>
       </c>
       <c r="X113" s="17">
-        <v>2.2068008693377577</v>
+        <v>2.2044504199990946</v>
       </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -29566,7 +29566,7 @@
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.2">
@@ -29576,7 +29576,7 @@
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.2">
@@ -29757,10 +29757,10 @@
         <v>18.632096149471771</v>
       </c>
       <c r="W131" s="17">
-        <v>17.282928204193095</v>
+        <v>17.298033928516929</v>
       </c>
       <c r="X131" s="17">
-        <v>16.485207867084569</v>
+        <v>16.427113863324578</v>
       </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -29903,10 +29903,10 @@
         <v>79.40509030659571</v>
       </c>
       <c r="W132" s="17">
-        <v>80.616428646118777</v>
+        <v>80.600061096374944</v>
       </c>
       <c r="X132" s="17">
-        <v>81.152644172996332</v>
+        <v>81.213339056634965</v>
       </c>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -30049,10 +30049,10 @@
         <v>1.9628135439325309</v>
       </c>
       <c r="W133" s="17">
-        <v>2.100643149688135</v>
+        <v>2.1019049751081273</v>
       </c>
       <c r="X133" s="17">
-        <v>2.3621479599190907</v>
+        <v>2.3595470800404521</v>
       </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC8DB1-B562-4170-8877-6DDB804EAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E026645-A7BB-46C8-972A-BCCEEE7E4262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$X$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$Y$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -607,13 +607,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23567,17 +23570,17 @@
   </sheetPr>
   <dimension ref="A1:CR139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A80" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V80" sqref="V1:X1048576"/>
+      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23592,7 +23595,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23605,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23637,6 +23640,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23710,6 +23714,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23788,7 +23795,9 @@
       <c r="X12" s="8">
         <v>690512.11359150161</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>738851.79882302019</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23934,7 +23943,9 @@
       <c r="X13" s="8">
         <v>3209104.0722639225</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>3595466.5772126922</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24080,7 +24091,9 @@
       <c r="X14" s="8">
         <v>87902.880812709656</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>101701.33756164167</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24324,7 +24337,9 @@
       <c r="X16" s="11">
         <v>3987519.0666681337</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="11">
+        <v>4436019.7135973545</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24422,6 +24437,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -24636,7 +24652,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
@@ -24646,7 +24662,7 @@
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
@@ -24681,6 +24697,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -24754,6 +24771,9 @@
       </c>
       <c r="X30" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="31" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24832,7 +24852,9 @@
       <c r="X32" s="8">
         <v>609588.52073181455</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="8">
+        <v>621362.83330942225</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -24978,7 +25000,9 @@
       <c r="X33" s="8">
         <v>3013719.8555465583</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="8">
+        <v>3193415.7218390168</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25124,7 +25148,9 @@
       <c r="X34" s="8">
         <v>87559.678838668056</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="8">
+        <v>98882.318126152604</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25222,7 +25248,7 @@
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="11"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25368,7 +25394,9 @@
       <c r="X36" s="11">
         <v>3710868.0551170409</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="11">
+        <v>3913660.8732745918</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25466,6 +25494,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
     </row>
     <row r="38" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -25680,7 +25709,7 @@
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25690,7 +25719,7 @@
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25725,6 +25754,7 @@
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -25796,7 +25826,10 @@
       <c r="W50" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="X50" s="16"/>
+      <c r="X50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y50" s="16"/>
     </row>
     <row r="51" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -25871,8 +25904,10 @@
       <c r="W52" s="17">
         <v>8.6051473234247737</v>
       </c>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="9"/>
+      <c r="X52" s="17">
+        <v>7.0005557151044684</v>
+      </c>
+      <c r="Y52" s="17"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
@@ -26010,8 +26045,10 @@
       <c r="W53" s="17">
         <v>14.756139350411416</v>
       </c>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="9"/>
+      <c r="X53" s="17">
+        <v>12.039575415707944</v>
+      </c>
+      <c r="Y53" s="17"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
@@ -26149,8 +26186,10 @@
       <c r="W54" s="17">
         <v>24.616507381783975</v>
       </c>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="9"/>
+      <c r="X54" s="17">
+        <v>15.697388551271388</v>
+      </c>
+      <c r="Y54" s="17"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -26381,8 +26420,10 @@
       <c r="W56" s="17">
         <v>13.83822470046654</v>
       </c>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="9"/>
+      <c r="X56" s="17">
+        <v>11.24761134506565</v>
+      </c>
+      <c r="Y56" s="17"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -26475,6 +26516,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
     </row>
     <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -26679,7 +26721,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:92" x14ac:dyDescent="0.2">
@@ -26689,7 +26731,7 @@
     </row>
     <row r="66" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:92" x14ac:dyDescent="0.2">
@@ -26724,6 +26766,7 @@
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
     </row>
     <row r="70" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -26795,7 +26838,10 @@
       <c r="W70" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X70" s="6"/>
+      <c r="X70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y70" s="6"/>
     </row>
     <row r="71" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -26870,8 +26916,10 @@
       <c r="W72" s="17">
         <v>3.2271250577376946</v>
       </c>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="9"/>
+      <c r="X72" s="17">
+        <v>1.9315180941190704</v>
+      </c>
+      <c r="Y72" s="17"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -27009,8 +27057,10 @@
       <c r="W73" s="17">
         <v>9.5270284266809853</v>
       </c>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="9"/>
+      <c r="X73" s="17">
+        <v>5.9625935689324336</v>
+      </c>
+      <c r="Y73" s="17"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -27148,8 +27198,10 @@
       <c r="W74" s="17">
         <v>22.023893552414791</v>
       </c>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="9"/>
+      <c r="X74" s="17">
+        <v>12.93133944489098</v>
+      </c>
+      <c r="Y74" s="17"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -27380,8 +27432,10 @@
       <c r="W76" s="17">
         <v>8.6999412342677545</v>
       </c>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="9"/>
+      <c r="X76" s="17">
+        <v>5.4648350505998877</v>
+      </c>
+      <c r="Y76" s="17"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -27474,6 +27528,7 @@
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
     </row>
     <row r="78" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -27674,7 +27729,7 @@
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:96" x14ac:dyDescent="0.2">
@@ -27684,7 +27739,7 @@
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
@@ -27719,6 +27774,7 @@
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -27792,6 +27848,9 @@
       </c>
       <c r="X89" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y89" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="90" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27870,7 +27929,9 @@
       <c r="X91" s="17">
         <v>113.27511757644942</v>
       </c>
-      <c r="Y91" s="9"/>
+      <c r="Y91" s="17">
+        <v>118.90827053299012</v>
+      </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -28016,7 +28077,9 @@
       <c r="X92" s="17">
         <v>106.48315789398181</v>
       </c>
-      <c r="Y92" s="9"/>
+      <c r="Y92" s="17">
+        <v>112.58999423796108</v>
+      </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
@@ -28162,7 +28225,9 @@
       <c r="X93" s="17">
         <v>100.3919634911795</v>
       </c>
-      <c r="Y93" s="9"/>
+      <c r="Y93" s="17">
+        <v>102.85088324071509</v>
+      </c>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
@@ -28406,7 +28471,9 @@
       <c r="X95" s="17">
         <v>107.45515624490096</v>
       </c>
-      <c r="Y95" s="9"/>
+      <c r="Y95" s="17">
+        <v>113.34706448097791</v>
+      </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28504,6 +28571,7 @@
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -28522,7 +28590,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -28532,7 +28600,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -28567,6 +28635,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -28640,6 +28709,9 @@
       </c>
       <c r="X109" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28718,7 +28790,9 @@
       <c r="X111" s="17">
         <v>17.316835406845474</v>
       </c>
-      <c r="Y111" s="9"/>
+      <c r="Y111" s="17">
+        <v>16.655737497249628</v>
+      </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -28864,7 +28938,9 @@
       <c r="X112" s="17">
         <v>80.478714173155424</v>
       </c>
-      <c r="Y112" s="9"/>
+      <c r="Y112" s="17">
+        <v>81.051636587452805</v>
+      </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -29010,7 +29086,9 @@
       <c r="X113" s="17">
         <v>2.2044504199990946</v>
       </c>
-      <c r="Y113" s="9"/>
+      <c r="Y113" s="17">
+        <v>2.2926259152975628</v>
+      </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -29254,7 +29332,9 @@
       <c r="X115" s="17">
         <v>100</v>
       </c>
-      <c r="Y115" s="9"/>
+      <c r="Y115" s="17">
+        <v>100</v>
+      </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -29352,6 +29432,7 @@
       <c r="V116" s="12"/>
       <c r="W116" s="12"/>
       <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
     </row>
     <row r="117" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -29566,7 +29647,7 @@
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.2">
@@ -29576,7 +29657,7 @@
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.2">
@@ -29611,6 +29692,7 @@
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -29684,6 +29766,9 @@
       </c>
       <c r="X129" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y129" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="130" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29762,7 +29847,9 @@
       <c r="X131" s="17">
         <v>16.427113863324578</v>
       </c>
-      <c r="Y131" s="9"/>
+      <c r="Y131" s="17">
+        <v>15.87676739066875</v>
+      </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -29908,7 +29995,9 @@
       <c r="X132" s="17">
         <v>81.213339056634965</v>
       </c>
-      <c r="Y132" s="9"/>
+      <c r="Y132" s="17">
+        <v>81.596638677767203</v>
+      </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -30054,7 +30143,9 @@
       <c r="X133" s="17">
         <v>2.3595470800404521</v>
       </c>
-      <c r="Y133" s="9"/>
+      <c r="Y133" s="17">
+        <v>2.5265939315640544</v>
+      </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -30298,7 +30389,9 @@
       <c r="X135" s="17">
         <v>100</v>
       </c>
-      <c r="Y135" s="9"/>
+      <c r="Y135" s="17">
+        <v>100</v>
+      </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
@@ -30396,6 +30489,7 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -30604,9 +30698,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="23" man="1"/>
-    <brk id="80" max="23" man="1"/>
-    <brk id="99" max="23" man="1"/>
+    <brk id="40" max="24" man="1"/>
+    <brk id="80" max="24" man="1"/>
+    <brk id="99" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E026645-A7BB-46C8-972A-BCCEEE7E4262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41C7C7-6C22-4576-A530-4459B0757D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -610,13 +610,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23571,49 +23571,49 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
+    <col min="2" max="25" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23642,7 +23642,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23719,10 +23719,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23793,10 +23793,10 @@
         <v>635800.5404064001</v>
       </c>
       <c r="X12" s="8">
-        <v>690512.11359150161</v>
+        <v>692568.81741043017</v>
       </c>
       <c r="Y12" s="8">
-        <v>738851.79882302019</v>
+        <v>740456.81606052141</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23870,7 +23870,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23941,10 +23941,10 @@
         <v>2796455.2401547981</v>
       </c>
       <c r="X13" s="8">
-        <v>3209104.0722639225</v>
+        <v>3207300.7712996779</v>
       </c>
       <c r="Y13" s="8">
-        <v>3595466.5772126922</v>
+        <v>3601234.4140945361</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24018,7 +24018,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24089,10 +24089,10 @@
         <v>70538.713256827323</v>
       </c>
       <c r="X14" s="8">
-        <v>87902.880812709656</v>
+        <v>87680.118003950076</v>
       </c>
       <c r="Y14" s="8">
-        <v>101701.33756164167</v>
+        <v>102334.21687391069</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24166,7 +24166,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -24264,7 +24264,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
@@ -24335,10 +24335,10 @@
         <v>3502794.493818026</v>
       </c>
       <c r="X16" s="11">
-        <v>3987519.0666681337</v>
+        <v>3987549.7067140578</v>
       </c>
       <c r="Y16" s="11">
-        <v>4436019.7135973545</v>
+        <v>4444025.4470289676</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24412,7 +24412,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -24439,12 +24439,12 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -24542,7 +24542,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24640,37 +24640,37 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -24699,7 +24699,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -24776,10 +24776,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -24850,10 +24850,10 @@
         <v>590531.33601352875</v>
       </c>
       <c r="X32" s="8">
-        <v>609588.52073181455</v>
+        <v>611411.16912174236</v>
       </c>
       <c r="Y32" s="8">
-        <v>621362.83330942225</v>
+        <v>622508.2917659228</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -24927,7 +24927,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -24998,10 +24998,10 @@
         <v>2751576.390629448</v>
       </c>
       <c r="X33" s="8">
-        <v>3013719.8555465583</v>
+        <v>3012034.7991603892</v>
       </c>
       <c r="Y33" s="8">
-        <v>3193415.7218390168</v>
+        <v>3191608.9663478541</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25075,7 +25075,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -25146,10 +25146,10 @@
         <v>71756.175196177632</v>
       </c>
       <c r="X34" s="8">
-        <v>87559.678838668056</v>
+        <v>87338.566257678845</v>
       </c>
       <c r="Y34" s="8">
-        <v>98882.318126152604</v>
+        <v>99302.564894546522</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25223,7 +25223,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -25321,7 +25321,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
@@ -25392,10 +25392,10 @@
         <v>3413863.9018391543</v>
       </c>
       <c r="X36" s="11">
-        <v>3710868.0551170409</v>
+        <v>3710784.5345398104</v>
       </c>
       <c r="Y36" s="11">
-        <v>3913660.8732745918</v>
+        <v>3913419.8230083231</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25469,7 +25469,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -25496,12 +25496,12 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -25599,7 +25599,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -25697,37 +25697,37 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -25756,7 +25756,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -25831,10 +25831,10 @@
       </c>
       <c r="Y50" s="16"/>
     </row>
-    <row r="51" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -25902,10 +25902,10 @@
         <v>5.1411559805927709E-2</v>
       </c>
       <c r="W52" s="17">
-        <v>8.6051473234247737</v>
+        <v>8.9286298762413878</v>
       </c>
       <c r="X52" s="17">
-        <v>7.0005557151044684</v>
+        <v>6.9145473267405038</v>
       </c>
       <c r="Y52" s="17"/>
       <c r="Z52" s="9"/>
@@ -25975,7 +25975,7 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -26043,10 +26043,10 @@
         <v>6.7950077262980813</v>
       </c>
       <c r="W53" s="17">
-        <v>14.756139350411416</v>
+        <v>14.69165410715236</v>
       </c>
       <c r="X53" s="17">
-        <v>12.039575415707944</v>
+        <v>12.282404142447362</v>
       </c>
       <c r="Y53" s="17"/>
       <c r="Z53" s="9"/>
@@ -26116,7 +26116,7 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -26184,10 +26184,10 @@
         <v>11.311305617601192</v>
       </c>
       <c r="W54" s="17">
-        <v>24.616507381783975</v>
+        <v>24.300705181156189</v>
       </c>
       <c r="X54" s="17">
-        <v>15.697388551271388</v>
+        <v>16.713137714185592</v>
       </c>
       <c r="Y54" s="17"/>
       <c r="Z54" s="9"/>
@@ -26257,7 +26257,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -26350,7 +26350,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>1</v>
       </c>
@@ -26418,10 +26418,10 @@
         <v>5.5894812729013097</v>
       </c>
       <c r="W56" s="17">
-        <v>13.83822470046654</v>
+        <v>13.839099431941008</v>
       </c>
       <c r="X56" s="17">
-        <v>11.24761134506565</v>
+        <v>11.447524768062863</v>
       </c>
       <c r="Y56" s="17"/>
       <c r="Z56" s="9"/>
@@ -26491,7 +26491,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -26518,12 +26518,12 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -26616,7 +26616,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -26709,37 +26709,37 @@
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="15" t="s">
         <v>6</v>
@@ -26768,7 +26768,7 @@
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>5</v>
       </c>
@@ -26843,10 +26843,10 @@
       </c>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -26914,10 +26914,10 @@
         <v>-3.2393567998928745</v>
       </c>
       <c r="W72" s="17">
-        <v>3.2271250577376946</v>
+        <v>3.5357705569303306</v>
       </c>
       <c r="X72" s="17">
-        <v>1.9315180941190704</v>
+        <v>1.8150016232318507</v>
       </c>
       <c r="Y72" s="17"/>
       <c r="Z72" s="9"/>
@@ -26987,7 +26987,7 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -27055,10 +27055,10 @@
         <v>5.7914928658858713</v>
       </c>
       <c r="W73" s="17">
-        <v>9.5270284266809853</v>
+        <v>9.4657887536009611</v>
       </c>
       <c r="X73" s="17">
-        <v>5.9625935689324336</v>
+        <v>5.9618888612283456</v>
       </c>
       <c r="Y73" s="17"/>
       <c r="Z73" s="9"/>
@@ -27128,7 +27128,7 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -27196,10 +27196,10 @@
         <v>11.608623206141374</v>
       </c>
       <c r="W74" s="17">
-        <v>22.023893552414791</v>
+        <v>21.715749228411042</v>
       </c>
       <c r="X74" s="17">
-        <v>12.93133944489098</v>
+        <v>13.69841428535679</v>
       </c>
       <c r="Y74" s="17"/>
       <c r="Z74" s="9"/>
@@ -27269,7 +27269,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -27362,7 +27362,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>1</v>
       </c>
@@ -27430,10 +27430,10 @@
         <v>4.2230356952304646</v>
       </c>
       <c r="W76" s="17">
-        <v>8.6999412342677545</v>
+        <v>8.6974947226424462</v>
       </c>
       <c r="X76" s="17">
-        <v>5.4648350505998877</v>
+        <v>5.4607128649586798</v>
       </c>
       <c r="Y76" s="17"/>
       <c r="Z76" s="9"/>
@@ -27503,7 +27503,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -27530,12 +27530,12 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27628,7 +27628,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -27722,32 +27722,32 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>6</v>
@@ -27776,7 +27776,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -27853,10 +27853,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -27927,10 +27927,10 @@
         <v>107.66584288286343</v>
       </c>
       <c r="X91" s="17">
-        <v>113.27511757644942</v>
+        <v>113.27382494586517</v>
       </c>
       <c r="Y91" s="17">
-        <v>118.90827053299012</v>
+        <v>118.94730172348451</v>
       </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -28004,7 +28004,7 @@
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -28075,10 +28075,10 @@
         <v>101.63102320830293</v>
       </c>
       <c r="X92" s="17">
-        <v>106.48315789398181</v>
+        <v>106.4828591022162</v>
       </c>
       <c r="Y92" s="17">
-        <v>112.58999423796108</v>
+        <v>112.83444971065532</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -28152,7 +28152,7 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -28223,10 +28223,10 @@
         <v>98.303334958946976</v>
       </c>
       <c r="X93" s="17">
-        <v>100.3919634911795</v>
+        <v>100.39106635350932</v>
       </c>
       <c r="Y93" s="17">
-        <v>102.85088324071509</v>
+        <v>103.05294428455458</v>
       </c>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
@@ -28300,7 +28300,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -28398,7 +28398,7 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>1</v>
       </c>
@@ -28469,10 +28469,10 @@
         <v>102.60498351826392</v>
       </c>
       <c r="X95" s="17">
-        <v>107.45515624490096</v>
+        <v>107.45840049720294</v>
       </c>
       <c r="Y95" s="17">
-        <v>113.34706448097791</v>
+        <v>113.55861747571865</v>
       </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28546,7 +28546,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -28573,42 +28573,42 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
         <v>6</v>
@@ -28637,7 +28637,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>5</v>
       </c>
@@ -28714,10 +28714,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -28788,10 +28788,10 @@
         <v>18.151237291496972</v>
       </c>
       <c r="X111" s="17">
-        <v>17.316835406845474</v>
+        <v>17.368280481728259</v>
       </c>
       <c r="Y111" s="17">
-        <v>16.655737497249628</v>
+        <v>16.661849147500952</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -28865,7 +28865,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -28936,10 +28936,10 @@
         <v>79.834978760249157</v>
       </c>
       <c r="X112" s="17">
-        <v>80.478714173155424</v>
+        <v>80.432872495592179</v>
       </c>
       <c r="Y112" s="17">
-        <v>81.051636587452805</v>
+        <v>81.035413883647408</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -29013,7 +29013,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -29084,10 +29084,10 @@
         <v>2.0137839482538564</v>
       </c>
       <c r="X113" s="17">
-        <v>2.2044504199990946</v>
+        <v>2.1988470226795722</v>
       </c>
       <c r="Y113" s="17">
-        <v>2.2926259152975628</v>
+        <v>2.3027369688516464</v>
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -29161,7 +29161,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -29259,7 +29259,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>1</v>
       </c>
@@ -29407,7 +29407,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -29434,12 +29434,12 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -29537,7 +29537,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -29635,37 +29635,37 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -29694,7 +29694,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
@@ -29771,10 +29771,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
@@ -29845,10 +29845,10 @@
         <v>17.298033928516929</v>
       </c>
       <c r="X131" s="17">
-        <v>16.427113863324578</v>
+        <v>16.476601199308543</v>
       </c>
       <c r="Y131" s="17">
-        <v>15.87676739066875</v>
+        <v>15.907015345146085</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -29922,7 +29922,7 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -29993,10 +29993,10 @@
         <v>80.600061096374944</v>
       </c>
       <c r="X132" s="17">
-        <v>81.213339056634965</v>
+        <v>81.169757260884026</v>
       </c>
       <c r="Y132" s="17">
-        <v>81.596638677767203</v>
+        <v>81.555496488858722</v>
       </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -30070,7 +30070,7 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -30141,10 +30141,10 @@
         <v>2.1019049751081273</v>
       </c>
       <c r="X133" s="17">
-        <v>2.3595470800404521</v>
+        <v>2.3536415398074322</v>
       </c>
       <c r="Y133" s="17">
-        <v>2.5265939315640544</v>
+        <v>2.5374881659952004</v>
       </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -30218,7 +30218,7 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -30316,7 +30316,7 @@
       <c r="CQ134" s="9"/>
       <c r="CR134" s="9"/>
     </row>
-    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
@@ -30464,7 +30464,7 @@
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
     </row>
-    <row r="136" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -30491,12 +30491,12 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -30594,7 +30594,7 @@
       <c r="CQ138" s="18"/>
       <c r="CR138" s="18"/>
     </row>
-    <row r="139" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41C7C7-6C22-4576-A530-4459B0757D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156AA3E-4493-4DF3-9E31-245BE82BBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$Y$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$Z$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -698,8 +701,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -739,10 +744,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{BA2E1911-10AB-4E26-95B6-C5E88D412B10}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2F131868-8EB4-427E-AFA2-11264ACB24E8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23570,50 +23577,50 @@
   </sheetPr>
   <dimension ref="A1:CR139"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23641,8 +23648,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23718,11 +23726,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23798,7 +23809,9 @@
       <c r="Y12" s="8">
         <v>740456.81606052141</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>788706.05541702476</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23870,7 +23883,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23946,7 +23959,9 @@
       <c r="Y13" s="8">
         <v>3601234.4140945361</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>3976464.6696898104</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24018,7 +24033,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24094,7 +24109,9 @@
       <c r="Y14" s="8">
         <v>102334.21687391069</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>111080.04995118963</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -24166,7 +24183,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -24264,7 +24281,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
@@ -24340,7 +24357,9 @@
       <c r="Y16" s="11">
         <v>4444025.4470289676</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="11">
+        <v>4876250.7750580246</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -24412,7 +24431,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -24438,13 +24457,14 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -24542,7 +24562,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24640,37 +24660,37 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>6</v>
@@ -24698,8 +24718,9 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -24775,11 +24796,14 @@
       <c r="Y30" s="14">
         <v>2023</v>
       </c>
+      <c r="Z30" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -24855,7 +24879,9 @@
       <c r="Y32" s="8">
         <v>622508.2917659228</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="8">
+        <v>646437.55215530936</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -24927,7 +24953,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -25003,7 +25029,9 @@
       <c r="Y33" s="8">
         <v>3191608.9663478541</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="8">
+        <v>3380982.4018827393</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -25075,7 +25103,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -25151,7 +25179,9 @@
       <c r="Y34" s="8">
         <v>99302.564894546522</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="8">
+        <v>106480.22846680557</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -25223,7 +25253,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -25249,7 +25279,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="11"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -25321,7 +25351,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
@@ -25397,7 +25427,9 @@
       <c r="Y36" s="11">
         <v>3913419.8230083231</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="11">
+        <v>4133900.1825048542</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -25469,7 +25501,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -25495,13 +25527,14 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -25599,7 +25632,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -25697,37 +25730,37 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -25755,8 +25788,9 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -25829,12 +25863,15 @@
       <c r="X50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Y50" s="16"/>
+      <c r="Y50" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z50" s="16"/>
     </row>
-    <row r="51" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -25907,8 +25944,10 @@
       <c r="X52" s="17">
         <v>6.9145473267405038</v>
       </c>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="9"/>
+      <c r="Y52" s="17">
+        <v>6.5161449405254359</v>
+      </c>
+      <c r="Z52" s="17"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
@@ -25975,7 +26014,7 @@
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
     </row>
-    <row r="53" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -26048,8 +26087,10 @@
       <c r="X53" s="17">
         <v>12.282404142447362</v>
       </c>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="9"/>
+      <c r="Y53" s="17">
+        <v>10.419489887320182</v>
+      </c>
+      <c r="Z53" s="17"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -26116,7 +26157,7 @@
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -26189,8 +26230,10 @@
       <c r="X54" s="17">
         <v>16.713137714185592</v>
       </c>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="9"/>
+      <c r="Y54" s="17">
+        <v>8.5463428992230206</v>
+      </c>
+      <c r="Z54" s="17"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -26257,7 +26300,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -26350,7 +26393,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>1</v>
       </c>
@@ -26423,8 +26466,10 @@
       <c r="X56" s="17">
         <v>11.447524768062863</v>
       </c>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="9"/>
+      <c r="Y56" s="17">
+        <v>9.725986792402793</v>
+      </c>
+      <c r="Z56" s="17"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -26491,7 +26536,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -26517,13 +26562,14 @@
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -26616,7 +26662,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -26709,37 +26755,37 @@
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="15" t="s">
         <v>6</v>
@@ -26767,8 +26813,9 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>5</v>
       </c>
@@ -26841,12 +26888,15 @@
       <c r="X70" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y70" s="6"/>
+      <c r="Y70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -26919,8 +26969,10 @@
       <c r="X72" s="17">
         <v>1.8150016232318507</v>
       </c>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="9"/>
+      <c r="Y72" s="17">
+        <v>3.8440066913011606</v>
+      </c>
+      <c r="Z72" s="17"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -26987,7 +27039,7 @@
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
     </row>
-    <row r="73" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -27060,8 +27112,10 @@
       <c r="X73" s="17">
         <v>5.9618888612283456</v>
       </c>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="9"/>
+      <c r="Y73" s="17">
+        <v>5.9334786163226028</v>
+      </c>
+      <c r="Z73" s="17"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
@@ -27128,7 +27182,7 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -27201,8 +27255,10 @@
       <c r="X74" s="17">
         <v>13.69841428535679</v>
       </c>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="9"/>
+      <c r="Y74" s="17">
+        <v>7.2280747026839549</v>
+      </c>
+      <c r="Z74" s="17"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
@@ -27269,7 +27325,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -27362,7 +27418,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:92" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>1</v>
       </c>
@@ -27435,8 +27491,10 @@
       <c r="X76" s="17">
         <v>5.4607128649586798</v>
       </c>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="9"/>
+      <c r="Y76" s="17">
+        <v>5.6339562190657944</v>
+      </c>
+      <c r="Z76" s="17"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -27503,7 +27561,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -27529,13 +27587,14 @@
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
     </row>
-    <row r="78" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27628,7 +27687,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -27722,32 +27781,32 @@
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>6</v>
@@ -27775,8 +27834,9 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -27852,11 +27912,14 @@
       <c r="Y89" s="14">
         <v>2023</v>
       </c>
+      <c r="Z89" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -27932,7 +27995,9 @@
       <c r="Y91" s="17">
         <v>118.94730172348451</v>
       </c>
-      <c r="Z91" s="9"/>
+      <c r="Z91" s="17">
+        <v>122.00808149021869</v>
+      </c>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
@@ -28004,7 +28069,7 @@
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -28080,7 +28145,9 @@
       <c r="Y92" s="17">
         <v>112.83444971065532</v>
       </c>
-      <c r="Z92" s="9"/>
+      <c r="Z92" s="17">
+        <v>117.61269941764469</v>
+      </c>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
@@ -28152,7 +28219,7 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -28228,7 +28295,9 @@
       <c r="Y93" s="17">
         <v>103.05294428455458</v>
       </c>
-      <c r="Z93" s="9"/>
+      <c r="Z93" s="17">
+        <v>104.31988318452755</v>
+      </c>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
@@ -28300,7 +28369,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -28398,7 +28467,7 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>1</v>
       </c>
@@ -28474,7 +28543,9 @@
       <c r="Y95" s="17">
         <v>113.55861747571865</v>
       </c>
-      <c r="Z95" s="9"/>
+      <c r="Z95" s="17">
+        <v>117.95763225476233</v>
+      </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
@@ -28546,7 +28617,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -28572,43 +28643,44 @@
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
         <v>6</v>
@@ -28636,8 +28708,9 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>5</v>
       </c>
@@ -28713,11 +28786,14 @@
       <c r="Y109" s="14">
         <v>2023</v>
       </c>
+      <c r="Z109" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -28793,7 +28869,9 @@
       <c r="Y111" s="17">
         <v>16.661849147500952</v>
       </c>
-      <c r="Z111" s="9"/>
+      <c r="Z111" s="17">
+        <v>16.174435889377317</v>
+      </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -28865,7 +28943,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -28941,7 +29019,9 @@
       <c r="Y112" s="17">
         <v>81.035413883647408</v>
       </c>
-      <c r="Z112" s="9"/>
+      <c r="Z112" s="17">
+        <v>81.54758344319346</v>
+      </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -29013,7 +29093,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -29089,7 +29169,9 @@
       <c r="Y113" s="17">
         <v>2.3027369688516464</v>
       </c>
-      <c r="Z113" s="9"/>
+      <c r="Z113" s="17">
+        <v>2.2779806674292269</v>
+      </c>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -29161,7 +29243,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -29259,7 +29341,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>1</v>
       </c>
@@ -29335,7 +29417,9 @@
       <c r="Y115" s="17">
         <v>100</v>
       </c>
-      <c r="Z115" s="9"/>
+      <c r="Z115" s="17">
+        <v>100</v>
+      </c>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -29407,7 +29491,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -29433,13 +29517,14 @@
       <c r="W116" s="12"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -29537,7 +29622,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -29635,37 +29720,37 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -29693,8 +29778,9 @@
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
@@ -29770,11 +29856,14 @@
       <c r="Y129" s="14">
         <v>2023</v>
       </c>
+      <c r="Z129" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="130" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
@@ -29850,7 +29939,9 @@
       <c r="Y131" s="17">
         <v>15.907015345146085</v>
       </c>
-      <c r="Z131" s="9"/>
+      <c r="Z131" s="17">
+        <v>15.637473659647327</v>
+      </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
@@ -29922,7 +30013,7 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -29998,7 +30089,9 @@
       <c r="Y132" s="17">
         <v>81.555496488858722</v>
       </c>
-      <c r="Z132" s="9"/>
+      <c r="Z132" s="17">
+        <v>81.78674502571323</v>
+      </c>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
@@ -30070,7 +30163,7 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -30146,7 +30239,9 @@
       <c r="Y133" s="17">
         <v>2.5374881659952004</v>
       </c>
-      <c r="Z133" s="9"/>
+      <c r="Z133" s="17">
+        <v>2.5757813146394355</v>
+      </c>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
@@ -30218,7 +30313,7 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -30316,7 +30411,7 @@
       <c r="CQ134" s="9"/>
       <c r="CR134" s="9"/>
     </row>
-    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
@@ -30392,7 +30487,9 @@
       <c r="Y135" s="17">
         <v>100</v>
       </c>
-      <c r="Z135" s="9"/>
+      <c r="Z135" s="17">
+        <v>100</v>
+      </c>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
@@ -30464,7 +30561,7 @@
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
     </row>
-    <row r="136" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -30490,13 +30587,14 @@
       <c r="W136" s="12"/>
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
+      <c r="Z136" s="12"/>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -30594,7 +30692,7 @@
       <c r="CQ138" s="18"/>
       <c r="CR138" s="18"/>
     </row>
-    <row r="139" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -30698,9 +30796,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="24" man="1"/>
-    <brk id="80" max="24" man="1"/>
-    <brk id="99" max="24" man="1"/>
+    <brk id="40" max="25" man="1"/>
+    <brk id="80" max="25" man="1"/>
+    <brk id="99" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156AA3E-4493-4DF3-9E31-245BE82BBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C297DD-7166-401F-BC08-ECC79B954496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23578,9 +23578,9 @@
   <dimension ref="A1:CR139"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23807,10 +23807,10 @@
         <v>692568.81741043017</v>
       </c>
       <c r="Y12" s="8">
-        <v>740456.81606052141</v>
+        <v>740182.79701482842</v>
       </c>
       <c r="Z12" s="8">
-        <v>788706.05541702476</v>
+        <v>787021.76034125127</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23957,10 +23957,10 @@
         <v>3207300.7712996779</v>
       </c>
       <c r="Y13" s="8">
-        <v>3601234.4140945361</v>
+        <v>3602949.7526950426</v>
       </c>
       <c r="Z13" s="8">
-        <v>3976464.6696898104</v>
+        <v>3978662.1688061003</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24107,10 +24107,10 @@
         <v>87680.118003950076</v>
       </c>
       <c r="Y14" s="8">
-        <v>102334.21687391069</v>
+        <v>102250.44848216053</v>
       </c>
       <c r="Z14" s="8">
-        <v>111080.04995118963</v>
+        <v>111071.96102639954</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24355,10 +24355,10 @@
         <v>3987549.7067140578</v>
       </c>
       <c r="Y16" s="11">
-        <v>4444025.4470289676</v>
+        <v>4445382.9981920319</v>
       </c>
       <c r="Z16" s="11">
-        <v>4876250.7750580246</v>
+        <v>4876755.8901737509</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24877,10 +24877,10 @@
         <v>611411.16912174236</v>
       </c>
       <c r="Y32" s="8">
-        <v>622508.2917659228</v>
+        <v>622276.2729538749</v>
       </c>
       <c r="Z32" s="8">
-        <v>646437.55215530936</v>
+        <v>644964.28108495846</v>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -25027,10 +25027,10 @@
         <v>3012034.7991603892</v>
       </c>
       <c r="Y33" s="8">
-        <v>3191608.9663478541</v>
+        <v>3193102.3671750077</v>
       </c>
       <c r="Z33" s="8">
-        <v>3380982.4018827393</v>
+        <v>3383056.8919933802</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25177,10 +25177,10 @@
         <v>87338.566257678845</v>
       </c>
       <c r="Y34" s="8">
-        <v>99302.564894546522</v>
+        <v>99221.026132761981</v>
       </c>
       <c r="Z34" s="8">
-        <v>106480.22846680557</v>
+        <v>106449.04401460002</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25425,10 +25425,10 @@
         <v>3710784.5345398104</v>
       </c>
       <c r="Y36" s="11">
-        <v>3913419.8230083231</v>
+        <v>3914599.6662616446</v>
       </c>
       <c r="Z36" s="11">
-        <v>4133900.1825048542</v>
+        <v>4134470.2170929387</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25942,10 +25942,10 @@
         <v>8.9286298762413878</v>
       </c>
       <c r="X52" s="17">
-        <v>6.9145473267405038</v>
+        <v>6.8749817213010971</v>
       </c>
       <c r="Y52" s="17">
-        <v>6.5161449405254359</v>
+        <v>6.3280264706671403</v>
       </c>
       <c r="Z52" s="17"/>
       <c r="AA52" s="9"/>
@@ -26085,10 +26085,10 @@
         <v>14.69165410715236</v>
       </c>
       <c r="X53" s="17">
-        <v>12.282404142447362</v>
+        <v>12.335886454298389</v>
       </c>
       <c r="Y53" s="17">
-        <v>10.419489887320182</v>
+        <v>10.427911625190475</v>
       </c>
       <c r="Z53" s="17"/>
       <c r="AA53" s="9"/>
@@ -26228,10 +26228,10 @@
         <v>24.300705181156189</v>
       </c>
       <c r="X54" s="17">
-        <v>16.713137714185592</v>
+        <v>16.617599074802854</v>
       </c>
       <c r="Y54" s="17">
-        <v>8.5463428992230206</v>
+        <v>8.6273582905390214</v>
       </c>
       <c r="Z54" s="17"/>
       <c r="AA54" s="9"/>
@@ -26464,10 +26464,10 @@
         <v>13.839099431941008</v>
       </c>
       <c r="X56" s="17">
-        <v>11.447524768062863</v>
+        <v>11.481569513907132</v>
       </c>
       <c r="Y56" s="17">
-        <v>9.725986792402793</v>
+        <v>9.7038408649414691</v>
       </c>
       <c r="Z56" s="17"/>
       <c r="AA56" s="9"/>
@@ -26967,10 +26967,10 @@
         <v>3.5357705569303306</v>
       </c>
       <c r="X72" s="17">
-        <v>1.8150016232318507</v>
+        <v>1.7770535411938368</v>
       </c>
       <c r="Y72" s="17">
-        <v>3.8440066913011606</v>
+        <v>3.6459703056628001</v>
       </c>
       <c r="Z72" s="17"/>
       <c r="AA72" s="9"/>
@@ -27110,10 +27110,10 @@
         <v>9.4657887536009611</v>
       </c>
       <c r="X73" s="17">
-        <v>5.9618888612283456</v>
+        <v>6.0114699891611991</v>
       </c>
       <c r="Y73" s="17">
-        <v>5.9334786163226028</v>
+        <v>5.948901819468702</v>
       </c>
       <c r="Z73" s="17"/>
       <c r="AA73" s="9"/>
@@ -27253,10 +27253,10 @@
         <v>21.715749228411042</v>
       </c>
       <c r="X74" s="17">
-        <v>13.69841428535679</v>
+        <v>13.605054884947137</v>
       </c>
       <c r="Y74" s="17">
-        <v>7.2280747026839549</v>
+        <v>7.2847642919623183</v>
       </c>
       <c r="Z74" s="17"/>
       <c r="AA74" s="9"/>
@@ -27489,10 +27489,10 @@
         <v>8.6974947226424462</v>
       </c>
       <c r="X76" s="17">
-        <v>5.4607128649586798</v>
+        <v>5.4925078463794534</v>
       </c>
       <c r="Y76" s="17">
-        <v>5.6339562190657944</v>
+        <v>5.6166803652048856</v>
       </c>
       <c r="Z76" s="17"/>
       <c r="AA76" s="9"/>
@@ -27993,10 +27993,10 @@
         <v>113.27382494586517</v>
       </c>
       <c r="Y91" s="17">
-        <v>118.94730172348451</v>
+        <v>118.94761686819018</v>
       </c>
       <c r="Z91" s="17">
-        <v>122.00808149021869</v>
+        <v>122.02563512778161</v>
       </c>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -28143,10 +28143,10 @@
         <v>106.4828591022162</v>
       </c>
       <c r="Y92" s="17">
-        <v>112.83444971065532</v>
+        <v>112.83539762875294</v>
       </c>
       <c r="Z92" s="17">
-        <v>117.61269941764469</v>
+        <v>117.60553534356247</v>
       </c>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
@@ -28293,10 +28293,10 @@
         <v>100.39106635350932</v>
       </c>
       <c r="Y93" s="17">
-        <v>103.05294428455458</v>
+        <v>103.0532060264576</v>
       </c>
       <c r="Z93" s="17">
-        <v>104.31988318452755</v>
+        <v>104.34284502467253</v>
       </c>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
@@ -28541,10 +28541,10 @@
         <v>107.45840049720294</v>
       </c>
       <c r="Y95" s="17">
-        <v>113.55861747571865</v>
+        <v>113.55907058657861</v>
       </c>
       <c r="Z95" s="17">
-        <v>117.95763225476233</v>
+        <v>117.95358616956572</v>
       </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28867,10 +28867,10 @@
         <v>17.368280481728259</v>
       </c>
       <c r="Y111" s="17">
-        <v>16.661849147500952</v>
+        <v>16.650596749838336</v>
       </c>
       <c r="Z111" s="17">
-        <v>16.174435889377317</v>
+        <v>16.138223402303844</v>
       </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -29017,10 +29017,10 @@
         <v>80.432872495592179</v>
       </c>
       <c r="Y112" s="17">
-        <v>81.035413883647408</v>
+        <v>81.04925389241798</v>
       </c>
       <c r="Z112" s="17">
-        <v>81.54758344319346</v>
+        <v>81.584197741428213</v>
       </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -29167,10 +29167,10 @@
         <v>2.1988470226795722</v>
       </c>
       <c r="Y113" s="17">
-        <v>2.3027369688516464</v>
+        <v>2.3001493577436745</v>
       </c>
       <c r="Z113" s="17">
-        <v>2.2779806674292269</v>
+        <v>2.2775788562679571</v>
       </c>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -29937,10 +29937,10 @@
         <v>16.476601199308543</v>
       </c>
       <c r="Y131" s="17">
-        <v>15.907015345146085</v>
+        <v>15.896294027637694</v>
       </c>
       <c r="Z131" s="17">
-        <v>15.637473659647327</v>
+        <v>15.599683809996117</v>
       </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -30087,10 +30087,10 @@
         <v>81.169757260884026</v>
       </c>
       <c r="Y132" s="17">
-        <v>81.555496488858722</v>
+        <v>81.569065534212072</v>
       </c>
       <c r="Z132" s="17">
-        <v>81.78674502571323</v>
+        <v>81.825644262884595</v>
       </c>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -30237,10 +30237,10 @@
         <v>2.3536415398074322</v>
       </c>
       <c r="Y133" s="17">
-        <v>2.5374881659952004</v>
+        <v>2.5346404381502396</v>
       </c>
       <c r="Z133" s="17">
-        <v>2.5757813146394355</v>
+        <v>2.5746719271192937</v>
       </c>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>

--- a/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-13TRD_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C297DD-7166-401F-BC08-ECC79B954496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37864FF7-7E4E-4F70-8F36-2596CBE8DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRD" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$Z$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TRD!$A$1:$AA$139</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23580,14 +23583,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23602,7 +23605,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23612,7 +23615,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23649,6 +23652,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23728,6 +23732,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23812,7 +23819,9 @@
       <c r="Z12" s="8">
         <v>787021.76034125127</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>829916.41863247391</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23962,7 +23971,9 @@
       <c r="Z13" s="8">
         <v>3978662.1688061003</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>4247293.5455214409</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24112,7 +24123,9 @@
       <c r="Z14" s="8">
         <v>111071.96102639954</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>120346.98697336629</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -24360,7 +24373,9 @@
       <c r="Z16" s="11">
         <v>4876755.8901737509</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11">
+        <v>5197556.9511272814</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -24458,6 +24473,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -24672,7 +24688,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
@@ -24682,7 +24698,7 @@
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
@@ -24719,6 +24735,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -24798,6 +24815,9 @@
       </c>
       <c r="Z30" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24882,7 +24902,9 @@
       <c r="Z32" s="8">
         <v>644964.28108495846</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="8">
+        <v>659701.22076511767</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -25032,7 +25054,9 @@
       <c r="Z33" s="8">
         <v>3383056.8919933802</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="8">
+        <v>3576682.2409391636</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -25182,7 +25206,9 @@
       <c r="Z34" s="8">
         <v>106449.04401460002</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="8">
+        <v>113920.75661309918</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -25280,7 +25306,7 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -25430,7 +25456,9 @@
       <c r="Z36" s="11">
         <v>4134470.2170929387</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="11">
+        <v>4350304.2183173802</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -25528,6 +25556,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
     </row>
     <row r="38" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -25742,7 +25771,7 @@
     </row>
     <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
@@ -25752,7 +25781,7 @@
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25789,6 +25818,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -25866,7 +25896,10 @@
       <c r="Y50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Z50" s="16"/>
+      <c r="Z50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" s="16"/>
     </row>
     <row r="51" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -25947,8 +25980,10 @@
       <c r="Y52" s="17">
         <v>6.3280264706671403</v>
       </c>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="9"/>
+      <c r="Z52" s="17">
+        <v>5.4502506096684868</v>
+      </c>
+      <c r="AA52" s="17"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
@@ -26090,8 +26125,10 @@
       <c r="Y53" s="17">
         <v>10.427911625190475</v>
       </c>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="9"/>
+      <c r="Z53" s="17">
+        <v>6.7518016186820518</v>
+      </c>
+      <c r="AA53" s="17"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -26233,8 +26270,10 @@
       <c r="Y54" s="17">
         <v>8.6273582905390214</v>
       </c>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="9"/>
+      <c r="Z54" s="17">
+        <v>8.3504656452065831</v>
+      </c>
+      <c r="AA54" s="17"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -26469,8 +26508,10 @@
       <c r="Y56" s="17">
         <v>9.7038408649414691</v>
       </c>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="9"/>
+      <c r="Z56" s="17">
+        <v>6.578165243003383</v>
+      </c>
+      <c r="AA56" s="17"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
@@ -26563,6 +26604,7 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
     </row>
     <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -26767,7 +26809,7 @@
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:92" x14ac:dyDescent="0.2">
@@ -26777,7 +26819,7 @@
     </row>
     <row r="66" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:92" x14ac:dyDescent="0.2">
@@ -26814,6 +26856,7 @@
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
     </row>
     <row r="70" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -26891,7 +26934,10 @@
       <c r="Y70" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z70" s="6"/>
+      <c r="Z70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA70" s="6"/>
     </row>
     <row r="71" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -26972,8 +27018,10 @@
       <c r="Y72" s="17">
         <v>3.6459703056628001</v>
       </c>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="9"/>
+      <c r="Z72" s="17">
+        <v>2.2849233844963948</v>
+      </c>
+      <c r="AA72" s="17"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -27115,8 +27163,10 @@
       <c r="Y73" s="17">
         <v>5.948901819468702</v>
       </c>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="9"/>
+      <c r="Z73" s="17">
+        <v>5.7233843570302554</v>
+      </c>
+      <c r="AA73" s="17"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
@@ -27258,8 +27308,10 @@
       <c r="Y74" s="17">
         <v>7.2847642919623183</v>
       </c>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="9"/>
+      <c r="Z74" s="17">
+        <v>7.019050915548263</v>
+      </c>
+      <c r="AA74" s="17"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
@@ -27494,8 +27546,10 @@
       <c r="Y76" s="17">
         <v>5.6166803652048856</v>
       </c>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="9"/>
+      <c r="Z76" s="17">
+        <v>5.2203544805360877</v>
+      </c>
+      <c r="AA76" s="17"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -27588,6 +27642,7 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
     </row>
     <row r="78" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
@@ -27788,7 +27843,7 @@
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:96" x14ac:dyDescent="0.2">
@@ -27798,7 +27853,7 @@
     </row>
     <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
@@ -27835,6 +27890,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
@@ -27914,6 +27970,9 @@
       </c>
       <c r="Z89" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="90" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27998,7 +28057,9 @@
       <c r="Z91" s="17">
         <v>122.02563512778161</v>
       </c>
-      <c r="AA91" s="9"/>
+      <c r="AA91" s="17">
+        <v>125.80186188983274</v>
+      </c>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
@@ -28148,7 +28209,9 @@
       <c r="Z92" s="17">
         <v>117.60553534356247</v>
       </c>
-      <c r="AA92" s="9"/>
+      <c r="AA92" s="17">
+        <v>118.74953544674376</v>
+      </c>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
@@ -28298,7 +28361,9 @@
       <c r="Z93" s="17">
         <v>104.34284502467253</v>
       </c>
-      <c r="AA93" s="9"/>
+      <c r="AA93" s="17">
+        <v>105.64096530897531</v>
+      </c>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AD93" s="9"/>
@@ -28546,7 +28611,9 @@
       <c r="Z95" s="17">
         <v>117.95358616956572</v>
       </c>
-      <c r="AA95" s="9"/>
+      <c r="AA95" s="17">
+        <v>119.47571227875193</v>
+      </c>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AD95" s="9"/>
@@ -28644,6 +28711,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -28662,7 +28730,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -28672,7 +28740,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -28709,6 +28777,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
@@ -28788,6 +28857,9 @@
       </c>
       <c r="Z109" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA109" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28872,7 +28944,9 @@
       <c r="Z111" s="17">
         <v>16.138223402303844</v>
       </c>
-      <c r="AA111" s="9"/>
+      <c r="AA111" s="17">
+        <v>15.967432900422111</v>
+      </c>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -29022,7 +29096,9 @@
       <c r="Z112" s="17">
         <v>81.584197741428213</v>
       </c>
-      <c r="AA112" s="9"/>
+      <c r="AA112" s="17">
+        <v>81.717114126094543</v>
+      </c>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -29172,7 +29248,9 @@
       <c r="Z113" s="17">
         <v>2.2775788562679571</v>
       </c>
-      <c r="AA113" s="9"/>
+      <c r="AA113" s="17">
+        <v>2.3154529734833331</v>
+      </c>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -29420,7 +29498,9 @@
       <c r="Z115" s="17">
         <v>100</v>
       </c>
-      <c r="AA115" s="9"/>
+      <c r="AA115" s="17">
+        <v>100</v>
+      </c>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -29518,6 +29598,7 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
     </row>
     <row r="117" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
@@ -29732,7 +29813,7 @@
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:96" x14ac:dyDescent="0.2">
@@ -29742,7 +29823,7 @@
     </row>
     <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:96" x14ac:dyDescent="0.2">
@@ -29779,6 +29860,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -29858,6 +29940,9 @@
       </c>
       <c r="Z129" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA129" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="130" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29942,7 +30027,9 @@
       <c r="Z131" s="17">
         <v>15.599683809996117</v>
       </c>
-      <c r="AA131" s="9"/>
+      <c r="AA131" s="17">
+        <v>15.164484772981654</v>
+      </c>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AD131" s="9"/>
@@ -30092,7 +30179,9 @@
       <c r="Z132" s="17">
         <v>81.825644262884595</v>
       </c>
-      <c r="AA132" s="9"/>
+      <c r="AA132" s="17">
+        <v>82.216830397267259</v>
+      </c>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AD132" s="9"/>
@@ -30242,7 +30331,9 @@
       <c r="Z133" s="17">
         <v>2.5746719271192937</v>
       </c>
-      <c r="AA133" s="9"/>
+      <c r="AA133" s="17">
+        <v>2.6186848297510945</v>
+      </c>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AD133" s="9"/>
@@ -30490,7 +30581,9 @@
       <c r="Z135" s="17">
         <v>100</v>
       </c>
-      <c r="AA135" s="9"/>
+      <c r="AA135" s="17">
+        <v>100</v>
+      </c>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AD135" s="9"/>
@@ -30588,6 +30681,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
       <c r="Z136" s="12"/>
+      <c r="AA136" s="12"/>
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
@@ -30796,9 +30890,9 @@
   <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="25" man="1"/>
-    <brk id="80" max="25" man="1"/>
-    <brk id="99" max="25" man="1"/>
+    <brk id="40" max="26" man="1"/>
+    <brk id="80" max="26" man="1"/>
+    <brk id="99" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>